--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_2.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_2.xlsx
@@ -3460,7 +3460,7 @@
     <t>جبنة دومتى فيتا بلس لانشون - 250 جم</t>
   </si>
   <si>
-    <t>اوكسى اوتوماتيك نسيم الربيع 4 ك + 1 ك مجانا - 5 كجم</t>
+    <t>اوكسى اوتوماتيك نسيم الربيع 4 ك + 1 ك مجانا -delisted 5 كجم</t>
   </si>
   <si>
     <t>ريفولى شاور جيل مسك الروم و الفانيليا - موف - 500 مل</t>
@@ -3583,7 +3583,7 @@
     <t>النجمة مكرونة قلم كشرى  - 20 كجم</t>
   </si>
   <si>
-    <t>اوكسى يدوى لافندر -- 1.5 كجم</t>
+    <t>اوكسى يدوى لافندر --Delisted 1.5 كجم</t>
   </si>
   <si>
     <t>كلوز اب احمر - 100 مل</t>
@@ -3883,7 +3883,7 @@
     <t>لوكس صابون اللمسة الناعمة خصم 2- جنيه - 165 جم</t>
   </si>
   <si>
-    <t>اوكسى اوتوماتيك نسيم الربيع - 2.5 كجم</t>
+    <t>اوكسى اوتوماتيك نسيم الربيع -Delisted 2.5 كجم</t>
   </si>
   <si>
     <t>فيبا سائل أطباق تفاح- 2 كجم</t>
@@ -9109,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>135.5309335737749</v>
+        <v>134.4364244065889</v>
       </c>
       <c r="E49" t="s">
         <v>2631</v>
@@ -9126,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>135.6391057850875</v>
+        <v>134.5469327677581</v>
       </c>
       <c r="E50" t="s">
         <v>2631</v>
@@ -9364,7 +9364,7 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>52</v>
+        <v>52.75</v>
       </c>
       <c r="E64" t="s">
         <v>2632</v>
@@ -9381,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1560</v>
+        <v>1582.5</v>
       </c>
       <c r="E65" t="s">
         <v>2631</v>
@@ -10282,7 +10282,7 @@
         <v>23</v>
       </c>
       <c r="D118">
-        <v>28.75</v>
+        <v>28.5</v>
       </c>
       <c r="E118" t="s">
         <v>2632</v>
@@ -10299,7 +10299,7 @@
         <v>15</v>
       </c>
       <c r="D119">
-        <v>86.25</v>
+        <v>85.5</v>
       </c>
       <c r="E119" t="s">
         <v>2631</v>
@@ -10316,7 +10316,7 @@
         <v>16</v>
       </c>
       <c r="D120">
-        <v>172.5</v>
+        <v>171</v>
       </c>
       <c r="E120" t="s">
         <v>2631</v>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E121" t="s">
         <v>2631</v>
@@ -10350,7 +10350,7 @@
         <v>23</v>
       </c>
       <c r="D122">
-        <v>50.25</v>
+        <v>50</v>
       </c>
       <c r="E122" t="s">
         <v>2632</v>
@@ -10367,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E123" t="s">
         <v>2631</v>
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>649.6656171670558</v>
+        <v>645.6030962412399</v>
       </c>
       <c r="E167" t="s">
         <v>2631</v>
@@ -13852,7 +13852,7 @@
         <v>3</v>
       </c>
       <c r="D328">
-        <v>808.18875</v>
+        <v>812.7921172437044</v>
       </c>
       <c r="E328" t="s">
         <v>2632</v>
@@ -13869,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="D329">
-        <v>4849.1325</v>
+        <v>4876.752703462226</v>
       </c>
       <c r="E329" t="s">
         <v>2631</v>
@@ -13920,7 +13920,7 @@
         <v>2</v>
       </c>
       <c r="D332">
-        <v>527</v>
+        <v>522.75</v>
       </c>
       <c r="E332" t="s">
         <v>2631</v>
@@ -13954,7 +13954,7 @@
         <v>2</v>
       </c>
       <c r="D334">
-        <v>528.7681954688237</v>
+        <v>526.5</v>
       </c>
       <c r="E334" t="s">
         <v>2631</v>
@@ -13988,7 +13988,7 @@
         <v>2</v>
       </c>
       <c r="D336">
-        <v>519.9720663695674</v>
+        <v>517.6879437515323</v>
       </c>
       <c r="E336" t="s">
         <v>2631</v>
@@ -14005,7 +14005,7 @@
         <v>2</v>
       </c>
       <c r="D337">
-        <v>473.3699399951513</v>
+        <v>470.3383332078014</v>
       </c>
       <c r="E337" t="s">
         <v>2631</v>
@@ -14022,7 +14022,7 @@
         <v>2</v>
       </c>
       <c r="D338">
-        <v>530.0628821440866</v>
+        <v>529.2347559952473</v>
       </c>
       <c r="E338" t="s">
         <v>2631</v>
@@ -14073,7 +14073,7 @@
         <v>2</v>
       </c>
       <c r="D341">
-        <v>528.6946302546681</v>
+        <v>526.6779057695609</v>
       </c>
       <c r="E341" t="s">
         <v>2631</v>
@@ -15790,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>185.8751228847198</v>
+        <v>185.8703391832902</v>
       </c>
       <c r="E442" t="s">
         <v>2631</v>
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>186.291183081711</v>
+        <v>186.2767458914369</v>
       </c>
       <c r="E445" t="s">
         <v>2631</v>
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="D447">
-        <v>186.1689844572273</v>
+        <v>185.3370257904926</v>
       </c>
       <c r="E447" t="s">
         <v>2631</v>
@@ -15977,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="D453">
-        <v>130.5711694070353</v>
+        <v>130.5638463319763</v>
       </c>
       <c r="E453" t="s">
         <v>2631</v>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>130.5060954205811</v>
+        <v>130.5299012632839</v>
       </c>
       <c r="E455" t="s">
         <v>2631</v>
@@ -16317,7 +16317,7 @@
         <v>10</v>
       </c>
       <c r="D473">
-        <v>29</v>
+        <v>29.25</v>
       </c>
       <c r="E473" t="s">
         <v>2632</v>
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="D474">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E474" t="s">
         <v>2631</v>
@@ -17320,7 +17320,7 @@
         <v>5</v>
       </c>
       <c r="D532">
-        <v>547.75</v>
+        <v>547.5</v>
       </c>
       <c r="E532" t="s">
         <v>2631</v>
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="D537">
-        <v>983.75</v>
+        <v>995.7449567679123</v>
       </c>
       <c r="E537" t="s">
         <v>2631</v>
@@ -18306,7 +18306,7 @@
         <v>1</v>
       </c>
       <c r="D590">
-        <v>668.25</v>
+        <v>673.5</v>
       </c>
       <c r="E590" t="s">
         <v>2631</v>
@@ -19173,7 +19173,7 @@
         <v>3</v>
       </c>
       <c r="D641">
-        <v>113.75</v>
+        <v>112.5</v>
       </c>
       <c r="E641" t="s">
         <v>2632</v>
@@ -19190,7 +19190,7 @@
         <v>1</v>
       </c>
       <c r="D642">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="E642" t="s">
         <v>2631</v>
@@ -24409,7 +24409,7 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>782.5</v>
+        <v>783.25</v>
       </c>
       <c r="E949" t="s">
         <v>2631</v>
@@ -24443,7 +24443,7 @@
         <v>1</v>
       </c>
       <c r="D951">
-        <v>546</v>
+        <v>540.75</v>
       </c>
       <c r="E951" t="s">
         <v>2631</v>
@@ -25803,7 +25803,7 @@
         <v>2</v>
       </c>
       <c r="D1031">
-        <v>101.25</v>
+        <v>99.25</v>
       </c>
       <c r="E1031" t="s">
         <v>2632</v>
@@ -25820,7 +25820,7 @@
         <v>1</v>
       </c>
       <c r="D1032">
-        <v>607.5</v>
+        <v>595.5</v>
       </c>
       <c r="E1032" t="s">
         <v>2631</v>
@@ -26466,7 +26466,7 @@
         <v>3</v>
       </c>
       <c r="D1070">
-        <v>354</v>
+        <v>353.5</v>
       </c>
       <c r="E1070" t="s">
         <v>2632</v>
@@ -26483,7 +26483,7 @@
         <v>1</v>
       </c>
       <c r="D1071">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="E1071" t="s">
         <v>2631</v>
@@ -26500,7 +26500,7 @@
         <v>3</v>
       </c>
       <c r="D1072">
-        <v>274</v>
+        <v>273.75</v>
       </c>
       <c r="E1072" t="s">
         <v>2632</v>
@@ -26517,7 +26517,7 @@
         <v>1</v>
       </c>
       <c r="D1073">
-        <v>1644</v>
+        <v>1642.5</v>
       </c>
       <c r="E1073" t="s">
         <v>2631</v>
@@ -26534,7 +26534,7 @@
         <v>3</v>
       </c>
       <c r="D1074">
-        <v>361.25</v>
+        <v>359.75</v>
       </c>
       <c r="E1074" t="s">
         <v>2632</v>
@@ -26551,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="D1075">
-        <v>4335</v>
+        <v>4317</v>
       </c>
       <c r="E1075" t="s">
         <v>2631</v>
@@ -26568,7 +26568,7 @@
         <v>3</v>
       </c>
       <c r="D1076">
-        <v>270.4901284293293</v>
+        <v>270.39024666565</v>
       </c>
       <c r="E1076" t="s">
         <v>2632</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="D1077">
-        <v>3245.881541151951</v>
+        <v>3244.6829599878</v>
       </c>
       <c r="E1077" t="s">
         <v>2631</v>
@@ -27231,7 +27231,7 @@
         <v>332</v>
       </c>
       <c r="D1115">
-        <v>100</v>
+        <v>99.75</v>
       </c>
       <c r="E1115" t="s">
         <v>2632</v>
@@ -27248,7 +27248,7 @@
         <v>1</v>
       </c>
       <c r="D1116">
-        <v>1000</v>
+        <v>997.5</v>
       </c>
       <c r="E1116" t="s">
         <v>2631</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="D1170">
-        <v>758.9911113482066</v>
+        <v>758.9911113482067</v>
       </c>
       <c r="E1170" t="s">
         <v>2631</v>
@@ -29951,7 +29951,7 @@
         <v>1</v>
       </c>
       <c r="D1275">
-        <v>101.75</v>
+        <v>104</v>
       </c>
       <c r="E1275" t="s">
         <v>2631</v>
@@ -30784,7 +30784,7 @@
         <v>7</v>
       </c>
       <c r="D1324">
-        <v>18.25</v>
+        <v>18.5</v>
       </c>
       <c r="E1324" t="s">
         <v>2632</v>
@@ -30801,7 +30801,7 @@
         <v>2</v>
       </c>
       <c r="D1325">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E1325" t="s">
         <v>2631</v>
@@ -30818,7 +30818,7 @@
         <v>3</v>
       </c>
       <c r="D1326">
-        <v>795.8169150497037</v>
+        <v>795.8169150497038</v>
       </c>
       <c r="E1326" t="s">
         <v>2632</v>
@@ -30835,7 +30835,7 @@
         <v>1</v>
       </c>
       <c r="D1327">
-        <v>4774.901490298222</v>
+        <v>4774.901490298223</v>
       </c>
       <c r="E1327" t="s">
         <v>2631</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="D1453">
-        <v>220</v>
+        <v>217.75</v>
       </c>
       <c r="E1453" t="s">
         <v>2631</v>
@@ -36496,7 +36496,7 @@
         <v>2</v>
       </c>
       <c r="D1660">
-        <v>160</v>
+        <v>160.25</v>
       </c>
       <c r="E1660" t="s">
         <v>2631</v>
@@ -36513,7 +36513,7 @@
         <v>2</v>
       </c>
       <c r="D1661">
-        <v>160</v>
+        <v>160.25</v>
       </c>
       <c r="E1661" t="s">
         <v>2631</v>
@@ -36530,7 +36530,7 @@
         <v>2</v>
       </c>
       <c r="D1662">
-        <v>160</v>
+        <v>160.25</v>
       </c>
       <c r="E1662" t="s">
         <v>2631</v>
@@ -36547,7 +36547,7 @@
         <v>2</v>
       </c>
       <c r="D1663">
-        <v>160</v>
+        <v>160.25</v>
       </c>
       <c r="E1663" t="s">
         <v>2631</v>
@@ -36564,7 +36564,7 @@
         <v>2</v>
       </c>
       <c r="D1664">
-        <v>160</v>
+        <v>160.25</v>
       </c>
       <c r="E1664" t="s">
         <v>2631</v>
@@ -36955,7 +36955,7 @@
         <v>4</v>
       </c>
       <c r="D1687">
-        <v>206.5</v>
+        <v>207.25</v>
       </c>
       <c r="E1687" t="s">
         <v>2632</v>
@@ -36972,7 +36972,7 @@
         <v>1</v>
       </c>
       <c r="D1688">
-        <v>2478</v>
+        <v>2487</v>
       </c>
       <c r="E1688" t="s">
         <v>2631</v>
@@ -37295,7 +37295,7 @@
         <v>1</v>
       </c>
       <c r="D1707">
-        <v>834.75</v>
+        <v>845</v>
       </c>
       <c r="E1707" t="s">
         <v>2631</v>
@@ -40083,7 +40083,7 @@
         <v>3</v>
       </c>
       <c r="D1871">
-        <v>83.206875</v>
+        <v>83.17281139405529</v>
       </c>
       <c r="E1871" t="s">
         <v>2632</v>
@@ -40100,7 +40100,7 @@
         <v>1</v>
       </c>
       <c r="D1872">
-        <v>1664.1375</v>
+        <v>1663.456227881106</v>
       </c>
       <c r="E1872" t="s">
         <v>2631</v>
@@ -40933,7 +40933,7 @@
         <v>1</v>
       </c>
       <c r="D1921">
-        <v>658.75</v>
+        <v>659</v>
       </c>
       <c r="E1921" t="s">
         <v>2631</v>
@@ -42463,7 +42463,7 @@
         <v>3</v>
       </c>
       <c r="D2011">
-        <v>142</v>
+        <v>140.75</v>
       </c>
       <c r="E2011" t="s">
         <v>2632</v>
@@ -42480,7 +42480,7 @@
         <v>1</v>
       </c>
       <c r="D2012">
-        <v>3408</v>
+        <v>3378</v>
       </c>
       <c r="E2012" t="s">
         <v>2631</v>
@@ -43126,7 +43126,7 @@
         <v>3</v>
       </c>
       <c r="D2050">
-        <v>83.206875</v>
+        <v>83.18411361385348</v>
       </c>
       <c r="E2050" t="s">
         <v>2632</v>
@@ -43143,7 +43143,7 @@
         <v>1</v>
       </c>
       <c r="D2051">
-        <v>1664.1375</v>
+        <v>1663.68227227707</v>
       </c>
       <c r="E2051" t="s">
         <v>2631</v>
@@ -43160,7 +43160,7 @@
         <v>3</v>
       </c>
       <c r="D2052">
-        <v>84.46121999097819</v>
+        <v>83.34529874820021</v>
       </c>
       <c r="E2052" t="s">
         <v>2632</v>
@@ -43177,7 +43177,7 @@
         <v>1</v>
       </c>
       <c r="D2053">
-        <v>844.6121999097819</v>
+        <v>833.4529874820021</v>
       </c>
       <c r="E2053" t="s">
         <v>2631</v>
@@ -43194,7 +43194,7 @@
         <v>3</v>
       </c>
       <c r="D2054">
-        <v>83.85335704682669</v>
+        <v>83.85350328481861</v>
       </c>
       <c r="E2054" t="s">
         <v>2632</v>
@@ -43211,7 +43211,7 @@
         <v>1</v>
       </c>
       <c r="D2055">
-        <v>838.5335704682668</v>
+        <v>838.5350328481861</v>
       </c>
       <c r="E2055" t="s">
         <v>2631</v>
@@ -43228,7 +43228,7 @@
         <v>3</v>
       </c>
       <c r="D2056">
-        <v>74</v>
+        <v>72.5</v>
       </c>
       <c r="E2056" t="s">
         <v>2632</v>
@@ -43245,7 +43245,7 @@
         <v>1</v>
       </c>
       <c r="D2057">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="E2057" t="s">
         <v>2631</v>
@@ -43466,7 +43466,7 @@
         <v>1</v>
       </c>
       <c r="D2070">
-        <v>722.9918750000001</v>
+        <v>715.529375</v>
       </c>
       <c r="E2070" t="s">
         <v>2631</v>
@@ -43534,7 +43534,7 @@
         <v>2</v>
       </c>
       <c r="D2074">
-        <v>100.9993935726534</v>
+        <v>100.9998363046044</v>
       </c>
       <c r="E2074" t="s">
         <v>2631</v>
@@ -43585,7 +43585,7 @@
         <v>2</v>
       </c>
       <c r="D2077">
-        <v>101.0060680316681</v>
+        <v>101.0061839065208</v>
       </c>
       <c r="E2077" t="s">
         <v>2631</v>
@@ -43857,7 +43857,7 @@
         <v>3</v>
       </c>
       <c r="D2093">
-        <v>154.7737862317231</v>
+        <v>154.9971183919379</v>
       </c>
       <c r="E2093" t="s">
         <v>2632</v>
@@ -43874,7 +43874,7 @@
         <v>1</v>
       </c>
       <c r="D2094">
-        <v>4643.213586951691</v>
+        <v>4649.913551758137</v>
       </c>
       <c r="E2094" t="s">
         <v>2631</v>
@@ -43891,7 +43891,7 @@
         <v>3</v>
       </c>
       <c r="D2095">
-        <v>153.9002922293493</v>
+        <v>151.7375</v>
       </c>
       <c r="E2095" t="s">
         <v>2632</v>
@@ -43908,7 +43908,7 @@
         <v>1</v>
       </c>
       <c r="D2096">
-        <v>4617.008766880479</v>
+        <v>4552.125</v>
       </c>
       <c r="E2096" t="s">
         <v>2631</v>
@@ -43925,7 +43925,7 @@
         <v>14</v>
       </c>
       <c r="D2097">
-        <v>76.11324334215482</v>
+        <v>76.93703808033686</v>
       </c>
       <c r="E2097" t="s">
         <v>2632</v>
@@ -43942,7 +43942,7 @@
         <v>1</v>
       </c>
       <c r="D2098">
-        <v>1141.698650132322</v>
+        <v>1154.055571205053</v>
       </c>
       <c r="E2098" t="s">
         <v>2631</v>
@@ -43959,7 +43959,7 @@
         <v>10</v>
       </c>
       <c r="D2099">
-        <v>79.75</v>
+        <v>80</v>
       </c>
       <c r="E2099" t="s">
         <v>2632</v>
@@ -43976,7 +43976,7 @@
         <v>1</v>
       </c>
       <c r="D2100">
-        <v>1914</v>
+        <v>1920</v>
       </c>
       <c r="E2100" t="s">
         <v>2631</v>
@@ -45625,7 +45625,7 @@
         <v>3</v>
       </c>
       <c r="D2197">
-        <v>95.56674161583015</v>
+        <v>95.56672368955233</v>
       </c>
       <c r="E2197" t="s">
         <v>2632</v>
@@ -45642,7 +45642,7 @@
         <v>1</v>
       </c>
       <c r="D2198">
-        <v>1146.800899389962</v>
+        <v>1146.800684274628</v>
       </c>
       <c r="E2198" t="s">
         <v>2631</v>
@@ -46101,7 +46101,7 @@
         <v>1</v>
       </c>
       <c r="D2225">
-        <v>461</v>
+        <v>461.25</v>
       </c>
       <c r="E2225" t="s">
         <v>2631</v>
@@ -46628,7 +46628,7 @@
         <v>1</v>
       </c>
       <c r="D2256">
-        <v>334.5</v>
+        <v>330.75</v>
       </c>
       <c r="E2256" t="s">
         <v>2631</v>
@@ -47699,7 +47699,7 @@
         <v>1</v>
       </c>
       <c r="D2319">
-        <v>853.5</v>
+        <v>857</v>
       </c>
       <c r="E2319" t="s">
         <v>2631</v>
@@ -48464,7 +48464,7 @@
         <v>23</v>
       </c>
       <c r="D2364">
-        <v>40.91682066605677</v>
+        <v>40.91438829438248</v>
       </c>
       <c r="E2364" t="s">
         <v>2632</v>
@@ -48481,7 +48481,7 @@
         <v>2</v>
       </c>
       <c r="D2365">
-        <v>245.5009239963406</v>
+        <v>245.4863297662949</v>
       </c>
       <c r="E2365" t="s">
         <v>2631</v>
@@ -48498,7 +48498,7 @@
         <v>1</v>
       </c>
       <c r="D2366">
-        <v>2455.009239963406</v>
+        <v>2454.863297662949</v>
       </c>
       <c r="E2366" t="s">
         <v>2631</v>
@@ -48668,7 +48668,7 @@
         <v>23</v>
       </c>
       <c r="D2376">
-        <v>26.86298043123642</v>
+        <v>26.740625</v>
       </c>
       <c r="E2376" t="s">
         <v>2632</v>
@@ -48685,7 +48685,7 @@
         <v>2</v>
       </c>
       <c r="D2377">
-        <v>161.1778825874185</v>
+        <v>160.44375</v>
       </c>
       <c r="E2377" t="s">
         <v>2631</v>
@@ -48702,7 +48702,7 @@
         <v>1</v>
       </c>
       <c r="D2378">
-        <v>967.067295524511</v>
+        <v>962.6625</v>
       </c>
       <c r="E2378" t="s">
         <v>2631</v>
@@ -49382,7 +49382,7 @@
         <v>3</v>
       </c>
       <c r="D2418">
-        <v>46.25</v>
+        <v>47</v>
       </c>
       <c r="E2418" t="s">
         <v>2632</v>
@@ -49399,7 +49399,7 @@
         <v>1</v>
       </c>
       <c r="D2419">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E2419" t="s">
         <v>2631</v>
@@ -49858,7 +49858,7 @@
         <v>3</v>
       </c>
       <c r="D2446">
-        <v>69.5</v>
+        <v>69.75</v>
       </c>
       <c r="E2446" t="s">
         <v>2632</v>
@@ -49875,7 +49875,7 @@
         <v>1</v>
       </c>
       <c r="D2447">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E2447" t="s">
         <v>2631</v>
@@ -49892,7 +49892,7 @@
         <v>3</v>
       </c>
       <c r="D2448">
-        <v>69.75</v>
+        <v>69.5</v>
       </c>
       <c r="E2448" t="s">
         <v>2632</v>
@@ -49909,7 +49909,7 @@
         <v>1</v>
       </c>
       <c r="D2449">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E2449" t="s">
         <v>2631</v>
@@ -51150,7 +51150,7 @@
         <v>1</v>
       </c>
       <c r="D2522">
-        <v>498.5</v>
+        <v>498.75</v>
       </c>
       <c r="E2522" t="s">
         <v>2631</v>
@@ -51167,7 +51167,7 @@
         <v>5</v>
       </c>
       <c r="D2523">
-        <v>322.5</v>
+        <v>322</v>
       </c>
       <c r="E2523" t="s">
         <v>2631</v>
@@ -51184,7 +51184,7 @@
         <v>5</v>
       </c>
       <c r="D2524">
-        <v>308.75</v>
+        <v>306.25</v>
       </c>
       <c r="E2524" t="s">
         <v>2631</v>
@@ -51915,7 +51915,7 @@
         <v>1</v>
       </c>
       <c r="D2567">
-        <v>725.479375</v>
+        <v>728.464375</v>
       </c>
       <c r="E2567" t="s">
         <v>2631</v>
@@ -52051,7 +52051,7 @@
         <v>2</v>
       </c>
       <c r="D2575">
-        <v>135.8547623417249</v>
+        <v>134.6572041253913</v>
       </c>
       <c r="E2575" t="s">
         <v>2631</v>
@@ -52153,7 +52153,7 @@
         <v>2</v>
       </c>
       <c r="D2581">
-        <v>148.00625</v>
+        <v>146.886875</v>
       </c>
       <c r="E2581" t="s">
         <v>2632</v>
@@ -52170,7 +52170,7 @@
         <v>1</v>
       </c>
       <c r="D2582">
-        <v>592.025</v>
+        <v>587.5475</v>
       </c>
       <c r="E2582" t="s">
         <v>2631</v>
@@ -52867,7 +52867,7 @@
         <v>25</v>
       </c>
       <c r="D2623">
-        <v>434.5</v>
+        <v>431.25</v>
       </c>
       <c r="E2623" t="s">
         <v>2632</v>
@@ -52884,7 +52884,7 @@
         <v>1</v>
       </c>
       <c r="D2624">
-        <v>869</v>
+        <v>862.5</v>
       </c>
       <c r="E2624" t="s">
         <v>2631</v>
@@ -55910,7 +55910,7 @@
         <v>3</v>
       </c>
       <c r="D2802">
-        <v>303.0379674041944</v>
+        <v>302.9664228705779</v>
       </c>
       <c r="E2802" t="s">
         <v>2632</v>
@@ -55927,7 +55927,7 @@
         <v>1</v>
       </c>
       <c r="D2803">
-        <v>2424.303739233555</v>
+        <v>2423.731382964623</v>
       </c>
       <c r="E2803" t="s">
         <v>2631</v>
@@ -55978,7 +55978,7 @@
         <v>3</v>
       </c>
       <c r="D2806">
-        <v>390.75</v>
+        <v>390.5</v>
       </c>
       <c r="E2806" t="s">
         <v>2632</v>
@@ -55995,7 +55995,7 @@
         <v>1</v>
       </c>
       <c r="D2807">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="E2807" t="s">
         <v>2631</v>
@@ -56012,7 +56012,7 @@
         <v>3</v>
       </c>
       <c r="D2808">
-        <v>395.75</v>
+        <v>395.5</v>
       </c>
       <c r="E2808" t="s">
         <v>2632</v>
@@ -56029,7 +56029,7 @@
         <v>1</v>
       </c>
       <c r="D2809">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="E2809" t="s">
         <v>2631</v>
@@ -57270,7 +57270,7 @@
         <v>2</v>
       </c>
       <c r="D2882">
-        <v>104.25</v>
+        <v>103.75</v>
       </c>
       <c r="E2882" t="s">
         <v>2631</v>
@@ -58698,7 +58698,7 @@
         <v>23</v>
       </c>
       <c r="D2966">
-        <v>48</v>
+        <v>47.75</v>
       </c>
       <c r="E2966" t="s">
         <v>2632</v>
@@ -58715,7 +58715,7 @@
         <v>15</v>
       </c>
       <c r="D2967">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E2967" t="s">
         <v>2631</v>
@@ -58732,7 +58732,7 @@
         <v>1</v>
       </c>
       <c r="D2968">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E2968" t="s">
         <v>2631</v>
@@ -60194,7 +60194,7 @@
         <v>26</v>
       </c>
       <c r="D3054">
-        <v>218.25</v>
+        <v>214.25</v>
       </c>
       <c r="E3054" t="s">
         <v>2631</v>
@@ -60500,7 +60500,7 @@
         <v>1</v>
       </c>
       <c r="D3072">
-        <v>462.75</v>
+        <v>458.25</v>
       </c>
       <c r="E3072" t="s">
         <v>2631</v>
@@ -60772,7 +60772,7 @@
         <v>3</v>
       </c>
       <c r="D3088">
-        <v>808.25</v>
+        <v>793.5</v>
       </c>
       <c r="E3088" t="s">
         <v>2631</v>
@@ -62727,7 +62727,7 @@
         <v>2</v>
       </c>
       <c r="D3203">
-        <v>199.25</v>
+        <v>203.5</v>
       </c>
       <c r="E3203" t="s">
         <v>2631</v>
@@ -63016,7 +63016,7 @@
         <v>10</v>
       </c>
       <c r="D3220">
-        <v>16.5</v>
+        <v>16.75</v>
       </c>
       <c r="E3220" t="s">
         <v>2632</v>
@@ -63033,7 +63033,7 @@
         <v>1</v>
       </c>
       <c r="D3221">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E3221" t="s">
         <v>2631</v>
@@ -63050,7 +63050,7 @@
         <v>10</v>
       </c>
       <c r="D3222">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="E3222" t="s">
         <v>2632</v>
@@ -63067,7 +63067,7 @@
         <v>1</v>
       </c>
       <c r="D3223">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3223" t="s">
         <v>2631</v>
@@ -63662,7 +63662,7 @@
         <v>10</v>
       </c>
       <c r="D3258">
-        <v>16.75887347554207</v>
+        <v>16.75884652383778</v>
       </c>
       <c r="E3258" t="s">
         <v>2632</v>
@@ -63679,7 +63679,7 @@
         <v>1</v>
       </c>
       <c r="D3259">
-        <v>201.1064817065049</v>
+        <v>201.1061582860534</v>
       </c>
       <c r="E3259" t="s">
         <v>2631</v>
@@ -63696,7 +63696,7 @@
         <v>10</v>
       </c>
       <c r="D3260">
-        <v>16.75778417749361</v>
+        <v>16.66625</v>
       </c>
       <c r="E3260" t="s">
         <v>2632</v>
@@ -63713,7 +63713,7 @@
         <v>1</v>
       </c>
       <c r="D3261">
-        <v>201.0934101299233</v>
+        <v>199.995</v>
       </c>
       <c r="E3261" t="s">
         <v>2631</v>
@@ -63798,7 +63798,7 @@
         <v>10</v>
       </c>
       <c r="D3266">
-        <v>16.7579153415833</v>
+        <v>16.75790477093807</v>
       </c>
       <c r="E3266" t="s">
         <v>2632</v>
@@ -63815,7 +63815,7 @@
         <v>1</v>
       </c>
       <c r="D3267">
-        <v>201.0949840989996</v>
+        <v>201.0948572512568</v>
       </c>
       <c r="E3267" t="s">
         <v>2631</v>
@@ -63866,7 +63866,7 @@
         <v>10</v>
       </c>
       <c r="D3270">
-        <v>16.7582500555753</v>
+        <v>16.75820109386608</v>
       </c>
       <c r="E3270" t="s">
         <v>2632</v>
@@ -63883,7 +63883,7 @@
         <v>1</v>
       </c>
       <c r="D3271">
-        <v>201.0990006669036</v>
+        <v>201.0984131263929</v>
       </c>
       <c r="E3271" t="s">
         <v>2631</v>
@@ -63900,7 +63900,7 @@
         <v>10</v>
       </c>
       <c r="D3272">
-        <v>16.75778417749362</v>
+        <v>16.88648110094028</v>
       </c>
       <c r="E3272" t="s">
         <v>2632</v>
@@ -63917,7 +63917,7 @@
         <v>1</v>
       </c>
       <c r="D3273">
-        <v>201.0934101299234</v>
+        <v>202.6377732112834</v>
       </c>
       <c r="E3273" t="s">
         <v>2631</v>
@@ -64172,7 +64172,7 @@
         <v>10</v>
       </c>
       <c r="D3288">
-        <v>16.75788351431398</v>
+        <v>16.75788115383508</v>
       </c>
       <c r="E3288" t="s">
         <v>2632</v>
@@ -64189,7 +64189,7 @@
         <v>1</v>
       </c>
       <c r="D3289">
-        <v>201.0946021717677</v>
+        <v>201.0945738460209</v>
       </c>
       <c r="E3289" t="s">
         <v>2631</v>
@@ -64818,7 +64818,7 @@
         <v>2</v>
       </c>
       <c r="D3326">
-        <v>393.895625</v>
+        <v>392.651875</v>
       </c>
       <c r="E3326" t="s">
         <v>2631</v>
@@ -65073,7 +65073,7 @@
         <v>80</v>
       </c>
       <c r="D3341">
-        <v>346.25</v>
+        <v>346</v>
       </c>
       <c r="E3341" t="s">
         <v>2632</v>
@@ -65090,7 +65090,7 @@
         <v>29</v>
       </c>
       <c r="D3342">
-        <v>692.5</v>
+        <v>692</v>
       </c>
       <c r="E3342" t="s">
         <v>2631</v>
@@ -65209,7 +65209,7 @@
         <v>80</v>
       </c>
       <c r="D3349">
-        <v>346.25</v>
+        <v>346</v>
       </c>
       <c r="E3349" t="s">
         <v>2632</v>
@@ -65226,7 +65226,7 @@
         <v>29</v>
       </c>
       <c r="D3350">
-        <v>692.5</v>
+        <v>692</v>
       </c>
       <c r="E3350" t="s">
         <v>2631</v>
@@ -68048,7 +68048,7 @@
         <v>1</v>
       </c>
       <c r="D3516">
-        <v>95.78504547985295</v>
+        <v>93.97780798516375</v>
       </c>
       <c r="E3516" t="s">
         <v>2631</v>
@@ -69425,7 +69425,7 @@
         <v>3</v>
       </c>
       <c r="D3597">
-        <v>23.88446220497989</v>
+        <v>23.6726398629242</v>
       </c>
       <c r="E3597" t="s">
         <v>2632</v>
@@ -69442,7 +69442,7 @@
         <v>1</v>
       </c>
       <c r="D3598">
-        <v>286.6135464597587</v>
+        <v>284.0716783550905</v>
       </c>
       <c r="E3598" t="s">
         <v>2631</v>
@@ -70819,7 +70819,7 @@
         <v>2</v>
       </c>
       <c r="D3679">
-        <v>218.9920172159434</v>
+        <v>219.0627041627368</v>
       </c>
       <c r="E3679" t="s">
         <v>2631</v>
@@ -70870,7 +70870,7 @@
         <v>2</v>
       </c>
       <c r="D3682">
-        <v>214.2177800300115</v>
+        <v>214.2292118388783</v>
       </c>
       <c r="E3682" t="s">
         <v>2631</v>
@@ -70887,7 +70887,7 @@
         <v>2</v>
       </c>
       <c r="D3683">
-        <v>216.25</v>
+        <v>216.2633348024528</v>
       </c>
       <c r="E3683" t="s">
         <v>2631</v>
@@ -70904,7 +70904,7 @@
         <v>2</v>
       </c>
       <c r="D3684">
-        <v>216.3136365651001</v>
+        <v>216.3187063422952</v>
       </c>
       <c r="E3684" t="s">
         <v>2631</v>
@@ -71465,7 +71465,7 @@
         <v>1</v>
       </c>
       <c r="D3717">
-        <v>480.25</v>
+        <v>473.25</v>
       </c>
       <c r="E3717" t="s">
         <v>2631</v>
@@ -72417,7 +72417,7 @@
         <v>3</v>
       </c>
       <c r="D3773">
-        <v>125</v>
+        <v>125.25</v>
       </c>
       <c r="E3773" t="s">
         <v>2632</v>
@@ -72434,7 +72434,7 @@
         <v>1</v>
       </c>
       <c r="D3774">
-        <v>750</v>
+        <v>751.5</v>
       </c>
       <c r="E3774" t="s">
         <v>2631</v>
@@ -72791,7 +72791,7 @@
         <v>2</v>
       </c>
       <c r="D3795">
-        <v>52.16274523674096</v>
+        <v>52.16274523674095</v>
       </c>
       <c r="E3795" t="s">
         <v>2632</v>
@@ -72808,7 +72808,7 @@
         <v>1</v>
       </c>
       <c r="D3796">
-        <v>625.9529428408915</v>
+        <v>625.9529428408914</v>
       </c>
       <c r="E3796" t="s">
         <v>2631</v>
@@ -73658,7 +73658,7 @@
         <v>1</v>
       </c>
       <c r="D3846">
-        <v>65.25</v>
+        <v>65.75</v>
       </c>
       <c r="E3846" t="s">
         <v>2631</v>
@@ -73675,7 +73675,7 @@
         <v>1</v>
       </c>
       <c r="D3847">
-        <v>65.25</v>
+        <v>65.75</v>
       </c>
       <c r="E3847" t="s">
         <v>2631</v>
@@ -74593,7 +74593,7 @@
         <v>1</v>
       </c>
       <c r="D3901">
-        <v>375.5</v>
+        <v>384</v>
       </c>
       <c r="E3901" t="s">
         <v>2631</v>
@@ -75341,7 +75341,7 @@
         <v>1</v>
       </c>
       <c r="D3945">
-        <v>65.25</v>
+        <v>65.75</v>
       </c>
       <c r="E3945" t="s">
         <v>2631</v>
@@ -75698,7 +75698,7 @@
         <v>3</v>
       </c>
       <c r="D3966">
-        <v>54.34513456456039</v>
+        <v>54.34879262928505</v>
       </c>
       <c r="E3966" t="s">
         <v>2632</v>
@@ -75715,7 +75715,7 @@
         <v>1</v>
       </c>
       <c r="D3967">
-        <v>652.1416147747246</v>
+        <v>652.1855115514206</v>
       </c>
       <c r="E3967" t="s">
         <v>2631</v>
@@ -76038,7 +76038,7 @@
         <v>7</v>
       </c>
       <c r="D3986">
-        <v>86.75</v>
+        <v>86</v>
       </c>
       <c r="E3986" t="s">
         <v>2632</v>
@@ -76055,7 +76055,7 @@
         <v>1</v>
       </c>
       <c r="D3987">
-        <v>867.5</v>
+        <v>860</v>
       </c>
       <c r="E3987" t="s">
         <v>2631</v>
@@ -76123,7 +76123,7 @@
         <v>3</v>
       </c>
       <c r="D3991">
-        <v>128.424591061438</v>
+        <v>128.4246661627047</v>
       </c>
       <c r="E3991" t="s">
         <v>2631</v>

--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_2.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_2.xlsx
@@ -9126,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>134.5469327677581</v>
+        <v>138.8720173535792</v>
       </c>
       <c r="E50" t="s">
         <v>2631</v>
@@ -9364,7 +9364,7 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>52.75</v>
+        <v>51.75</v>
       </c>
       <c r="E64" t="s">
         <v>2632</v>
@@ -9381,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1582.5</v>
+        <v>1552.5</v>
       </c>
       <c r="E65" t="s">
         <v>2631</v>
@@ -12492,7 +12492,7 @@
         <v>2</v>
       </c>
       <c r="D248">
-        <v>364.75</v>
+        <v>366</v>
       </c>
       <c r="E248" t="s">
         <v>2631</v>
@@ -12747,7 +12747,7 @@
         <v>5</v>
       </c>
       <c r="D263">
-        <v>649.25</v>
+        <v>647.25</v>
       </c>
       <c r="E263" t="s">
         <v>2631</v>
@@ -13920,7 +13920,7 @@
         <v>2</v>
       </c>
       <c r="D332">
-        <v>522.75</v>
+        <v>520.2943914504966</v>
       </c>
       <c r="E332" t="s">
         <v>2631</v>
@@ -13954,7 +13954,7 @@
         <v>2</v>
       </c>
       <c r="D334">
-        <v>526.5</v>
+        <v>524.8995862030121</v>
       </c>
       <c r="E334" t="s">
         <v>2631</v>
@@ -13988,7 +13988,7 @@
         <v>2</v>
       </c>
       <c r="D336">
-        <v>517.6879437515323</v>
+        <v>516.1032653801684</v>
       </c>
       <c r="E336" t="s">
         <v>2631</v>
@@ -14022,7 +14022,7 @@
         <v>2</v>
       </c>
       <c r="D338">
-        <v>529.2347559952473</v>
+        <v>528.0469270080152</v>
       </c>
       <c r="E338" t="s">
         <v>2631</v>
@@ -14056,7 +14056,7 @@
         <v>2</v>
       </c>
       <c r="D340">
-        <v>531.8559406031002</v>
+        <v>530.6423159721598</v>
       </c>
       <c r="E340" t="s">
         <v>2631</v>
@@ -14073,7 +14073,7 @@
         <v>2</v>
       </c>
       <c r="D341">
-        <v>526.6779057695609</v>
+        <v>524.9733677372566</v>
       </c>
       <c r="E341" t="s">
         <v>2631</v>
@@ -15790,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>185.8703391832902</v>
+        <v>185.8665414383613</v>
       </c>
       <c r="E442" t="s">
         <v>2631</v>
@@ -15807,7 +15807,7 @@
         <v>1</v>
       </c>
       <c r="D443">
-        <v>184.2947804649762</v>
+        <v>184.2588559487745</v>
       </c>
       <c r="E443" t="s">
         <v>2631</v>
@@ -15841,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>186.2767458914369</v>
+        <v>186.2625235676997</v>
       </c>
       <c r="E445" t="s">
         <v>2631</v>
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="D446">
-        <v>185.9836390117075</v>
+        <v>185.9603994534644</v>
       </c>
       <c r="E446" t="s">
         <v>2631</v>
@@ -15875,7 +15875,7 @@
         <v>1</v>
       </c>
       <c r="D447">
-        <v>185.3370257904926</v>
+        <v>185.3296031237778</v>
       </c>
       <c r="E447" t="s">
         <v>2631</v>
@@ -15977,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="D453">
-        <v>130.5638463319763</v>
+        <v>130.5376303813077</v>
       </c>
       <c r="E453" t="s">
         <v>2631</v>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="D454">
-        <v>130.636608577216</v>
+        <v>130.6703417281546</v>
       </c>
       <c r="E454" t="s">
         <v>2631</v>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>130.5299012632839</v>
+        <v>130.522596165129</v>
       </c>
       <c r="E455" t="s">
         <v>2631</v>
@@ -16317,7 +16317,7 @@
         <v>10</v>
       </c>
       <c r="D473">
-        <v>29.25</v>
+        <v>30</v>
       </c>
       <c r="E473" t="s">
         <v>2632</v>
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="D474">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="E474" t="s">
         <v>2631</v>
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="D503">
-        <v>206.0683128291096</v>
+        <v>206.1597736407913</v>
       </c>
       <c r="E503" t="s">
         <v>2631</v>
@@ -17116,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <v>253.25</v>
+        <v>253.5</v>
       </c>
       <c r="E520" t="s">
         <v>2631</v>
@@ -17320,7 +17320,7 @@
         <v>5</v>
       </c>
       <c r="D532">
-        <v>547.5</v>
+        <v>545.5</v>
       </c>
       <c r="E532" t="s">
         <v>2631</v>
@@ -17592,7 +17592,7 @@
         <v>1</v>
       </c>
       <c r="D548">
-        <v>179.75</v>
+        <v>179.5</v>
       </c>
       <c r="E548" t="s">
         <v>2631</v>
@@ -18204,7 +18204,7 @@
         <v>332</v>
       </c>
       <c r="D584">
-        <v>906.5146838705375</v>
+        <v>906.75</v>
       </c>
       <c r="E584" t="s">
         <v>2632</v>
@@ -18221,7 +18221,7 @@
         <v>1</v>
       </c>
       <c r="D585">
-        <v>3626.05873548215</v>
+        <v>3627</v>
       </c>
       <c r="E585" t="s">
         <v>2631</v>
@@ -18238,7 +18238,7 @@
         <v>332</v>
       </c>
       <c r="D586">
-        <v>906.5146838705375</v>
+        <v>906.75</v>
       </c>
       <c r="E586" t="s">
         <v>2632</v>
@@ -18255,7 +18255,7 @@
         <v>1</v>
       </c>
       <c r="D587">
-        <v>3626.05873548215</v>
+        <v>3627</v>
       </c>
       <c r="E587" t="s">
         <v>2631</v>
@@ -18306,7 +18306,7 @@
         <v>1</v>
       </c>
       <c r="D590">
-        <v>673.5</v>
+        <v>668.25</v>
       </c>
       <c r="E590" t="s">
         <v>2631</v>
@@ -18357,7 +18357,7 @@
         <v>23</v>
       </c>
       <c r="D593">
-        <v>43.5</v>
+        <v>43.25</v>
       </c>
       <c r="E593" t="s">
         <v>2632</v>
@@ -18374,7 +18374,7 @@
         <v>1</v>
       </c>
       <c r="D594">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="E594" t="s">
         <v>2631</v>
@@ -18408,7 +18408,7 @@
         <v>22</v>
       </c>
       <c r="D596">
-        <v>1225.25</v>
+        <v>1225</v>
       </c>
       <c r="E596" t="s">
         <v>2631</v>
@@ -21213,7 +21213,7 @@
         <v>7</v>
       </c>
       <c r="D761">
-        <v>104.75</v>
+        <v>105</v>
       </c>
       <c r="E761" t="s">
         <v>2632</v>
@@ -21230,7 +21230,7 @@
         <v>1</v>
       </c>
       <c r="D762">
-        <v>2095</v>
+        <v>2100</v>
       </c>
       <c r="E762" t="s">
         <v>2631</v>
@@ -21247,7 +21247,7 @@
         <v>7</v>
       </c>
       <c r="D763">
-        <v>105.5</v>
+        <v>105.75</v>
       </c>
       <c r="E763" t="s">
         <v>2632</v>
@@ -21264,7 +21264,7 @@
         <v>1</v>
       </c>
       <c r="D764">
-        <v>2110</v>
+        <v>2115</v>
       </c>
       <c r="E764" t="s">
         <v>2631</v>
@@ -21519,7 +21519,7 @@
         <v>7</v>
       </c>
       <c r="D779">
-        <v>63.25273451304354</v>
+        <v>63.25273451304352</v>
       </c>
       <c r="E779" t="s">
         <v>2632</v>
@@ -21536,7 +21536,7 @@
         <v>1</v>
       </c>
       <c r="D780">
-        <v>759.0328141565224</v>
+        <v>759.0328141565222</v>
       </c>
       <c r="E780" t="s">
         <v>2631</v>
@@ -24375,7 +24375,7 @@
         <v>1</v>
       </c>
       <c r="D947">
-        <v>568.25</v>
+        <v>568.75</v>
       </c>
       <c r="E947" t="s">
         <v>2631</v>
@@ -24409,7 +24409,7 @@
         <v>1</v>
       </c>
       <c r="D949">
-        <v>783.25</v>
+        <v>783.75</v>
       </c>
       <c r="E949" t="s">
         <v>2631</v>
@@ -24987,7 +24987,7 @@
         <v>25</v>
       </c>
       <c r="D983">
-        <v>369.75</v>
+        <v>369.5</v>
       </c>
       <c r="E983" t="s">
         <v>2632</v>
@@ -25004,7 +25004,7 @@
         <v>29</v>
       </c>
       <c r="D984">
-        <v>739.5</v>
+        <v>739</v>
       </c>
       <c r="E984" t="s">
         <v>2631</v>
@@ -26041,7 +26041,7 @@
         <v>2</v>
       </c>
       <c r="D1045">
-        <v>104.25</v>
+        <v>104</v>
       </c>
       <c r="E1045" t="s">
         <v>2632</v>
@@ -26058,7 +26058,7 @@
         <v>1</v>
       </c>
       <c r="D1046">
-        <v>625.5</v>
+        <v>624</v>
       </c>
       <c r="E1046" t="s">
         <v>2631</v>
@@ -26466,7 +26466,7 @@
         <v>3</v>
       </c>
       <c r="D1070">
-        <v>353.5</v>
+        <v>350.5</v>
       </c>
       <c r="E1070" t="s">
         <v>2632</v>
@@ -26483,7 +26483,7 @@
         <v>1</v>
       </c>
       <c r="D1071">
-        <v>2121</v>
+        <v>2103</v>
       </c>
       <c r="E1071" t="s">
         <v>2631</v>
@@ -26500,7 +26500,7 @@
         <v>3</v>
       </c>
       <c r="D1072">
-        <v>273.75</v>
+        <v>271.25</v>
       </c>
       <c r="E1072" t="s">
         <v>2632</v>
@@ -26517,7 +26517,7 @@
         <v>1</v>
       </c>
       <c r="D1073">
-        <v>1642.5</v>
+        <v>1627.5</v>
       </c>
       <c r="E1073" t="s">
         <v>2631</v>
@@ -26534,7 +26534,7 @@
         <v>3</v>
       </c>
       <c r="D1074">
-        <v>359.75</v>
+        <v>359.25</v>
       </c>
       <c r="E1074" t="s">
         <v>2632</v>
@@ -26551,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="D1075">
-        <v>4317</v>
+        <v>4311</v>
       </c>
       <c r="E1075" t="s">
         <v>2631</v>
@@ -26568,7 +26568,7 @@
         <v>3</v>
       </c>
       <c r="D1076">
-        <v>270.39024666565</v>
+        <v>270.350301969799</v>
       </c>
       <c r="E1076" t="s">
         <v>2632</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="D1077">
-        <v>3244.6829599878</v>
+        <v>3244.203623637588</v>
       </c>
       <c r="E1077" t="s">
         <v>2631</v>
@@ -27333,7 +27333,7 @@
         <v>5</v>
       </c>
       <c r="D1121">
-        <v>740.5</v>
+        <v>740</v>
       </c>
       <c r="E1121" t="s">
         <v>2631</v>
@@ -27741,7 +27741,7 @@
         <v>5</v>
       </c>
       <c r="D1145">
-        <v>831.5</v>
+        <v>828</v>
       </c>
       <c r="E1145" t="s">
         <v>2631</v>
@@ -27809,7 +27809,7 @@
         <v>5</v>
       </c>
       <c r="D1149">
-        <v>964</v>
+        <v>945.25</v>
       </c>
       <c r="E1149" t="s">
         <v>2631</v>
@@ -30818,7 +30818,7 @@
         <v>3</v>
       </c>
       <c r="D1326">
-        <v>795.8169150497038</v>
+        <v>794.134375</v>
       </c>
       <c r="E1326" t="s">
         <v>2632</v>
@@ -30835,7 +30835,7 @@
         <v>1</v>
       </c>
       <c r="D1327">
-        <v>4774.901490298223</v>
+        <v>4764.80625</v>
       </c>
       <c r="E1327" t="s">
         <v>2631</v>
@@ -30852,7 +30852,7 @@
         <v>3</v>
       </c>
       <c r="D1328">
-        <v>102.4246175443432</v>
+        <v>102.424617544349</v>
       </c>
       <c r="E1328" t="s">
         <v>2632</v>
@@ -30869,7 +30869,7 @@
         <v>1</v>
       </c>
       <c r="D1329">
-        <v>1638.793880709491</v>
+        <v>1638.793880709584</v>
       </c>
       <c r="E1329" t="s">
         <v>2631</v>
@@ -30920,7 +30920,7 @@
         <v>3</v>
       </c>
       <c r="D1332">
-        <v>805.4525</v>
+        <v>791.2737499999999</v>
       </c>
       <c r="E1332" t="s">
         <v>2632</v>
@@ -30937,7 +30937,7 @@
         <v>1</v>
       </c>
       <c r="D1333">
-        <v>4832.715</v>
+        <v>4747.6425</v>
       </c>
       <c r="E1333" t="s">
         <v>2631</v>
@@ -31719,7 +31719,7 @@
         <v>3</v>
       </c>
       <c r="D1379">
-        <v>101.9661755644434</v>
+        <v>101.9661775810211</v>
       </c>
       <c r="E1379" t="s">
         <v>2632</v>
@@ -31736,7 +31736,7 @@
         <v>1</v>
       </c>
       <c r="D1380">
-        <v>1631.458809031094</v>
+        <v>1631.458841296337</v>
       </c>
       <c r="E1380" t="s">
         <v>2631</v>
@@ -31753,7 +31753,7 @@
         <v>3</v>
       </c>
       <c r="D1381">
-        <v>101.9661747153196</v>
+        <v>101.9661731811383</v>
       </c>
       <c r="E1381" t="s">
         <v>2632</v>
@@ -31770,7 +31770,7 @@
         <v>1</v>
       </c>
       <c r="D1382">
-        <v>1631.458795445113</v>
+        <v>1631.458770898213</v>
       </c>
       <c r="E1382" t="s">
         <v>2631</v>
@@ -31787,7 +31787,7 @@
         <v>3</v>
       </c>
       <c r="D1383">
-        <v>101.9661819487659</v>
+        <v>101.96617320151</v>
       </c>
       <c r="E1383" t="s">
         <v>2632</v>
@@ -31804,7 +31804,7 @@
         <v>1</v>
       </c>
       <c r="D1384">
-        <v>1631.458911180255</v>
+        <v>1631.45877122416</v>
       </c>
       <c r="E1384" t="s">
         <v>2631</v>
@@ -32841,7 +32841,7 @@
         <v>3</v>
       </c>
       <c r="D1445">
-        <v>125</v>
+        <v>124.5</v>
       </c>
       <c r="E1445" t="s">
         <v>2632</v>
@@ -32858,7 +32858,7 @@
         <v>1</v>
       </c>
       <c r="D1446">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E1446" t="s">
         <v>2631</v>
@@ -33504,7 +33504,7 @@
         <v>3</v>
       </c>
       <c r="D1484">
-        <v>131.5</v>
+        <v>133</v>
       </c>
       <c r="E1484" t="s">
         <v>2632</v>
@@ -33521,7 +33521,7 @@
         <v>1</v>
       </c>
       <c r="D1485">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="E1485" t="s">
         <v>2631</v>
@@ -35153,7 +35153,7 @@
         <v>3</v>
       </c>
       <c r="D1581">
-        <v>439.25</v>
+        <v>444.25</v>
       </c>
       <c r="E1581" t="s">
         <v>2631</v>
@@ -36020,7 +36020,7 @@
         <v>1</v>
       </c>
       <c r="D1632">
-        <v>371.5</v>
+        <v>372.75</v>
       </c>
       <c r="E1632" t="s">
         <v>2631</v>
@@ -36445,7 +36445,7 @@
         <v>5</v>
       </c>
       <c r="D1657">
-        <v>844.25</v>
+        <v>839</v>
       </c>
       <c r="E1657" t="s">
         <v>2631</v>
@@ -37924,7 +37924,7 @@
         <v>3</v>
       </c>
       <c r="D1744">
-        <v>43.30391093372737</v>
+        <v>43.3053999151706</v>
       </c>
       <c r="E1744" t="s">
         <v>2632</v>
@@ -37941,7 +37941,7 @@
         <v>1</v>
       </c>
       <c r="D1745">
-        <v>259.8234656023643</v>
+        <v>259.8323994910236</v>
       </c>
       <c r="E1745" t="s">
         <v>2631</v>
@@ -37958,7 +37958,7 @@
         <v>3</v>
       </c>
       <c r="D1746">
-        <v>43.30136688952189</v>
+        <v>43.30583674090358</v>
       </c>
       <c r="E1746" t="s">
         <v>2632</v>
@@ -37975,7 +37975,7 @@
         <v>1</v>
       </c>
       <c r="D1747">
-        <v>259.8082013371314</v>
+        <v>259.8350204454215</v>
       </c>
       <c r="E1747" t="s">
         <v>2631</v>
@@ -38264,7 +38264,7 @@
         <v>1</v>
       </c>
       <c r="D1764">
-        <v>318.75</v>
+        <v>319.25</v>
       </c>
       <c r="E1764" t="s">
         <v>2631</v>
@@ -40083,7 +40083,7 @@
         <v>3</v>
       </c>
       <c r="D1871">
-        <v>83.17281139405529</v>
+        <v>83.17947999523017</v>
       </c>
       <c r="E1871" t="s">
         <v>2632</v>
@@ -40100,7 +40100,7 @@
         <v>1</v>
       </c>
       <c r="D1872">
-        <v>1663.456227881106</v>
+        <v>1663.589599904603</v>
       </c>
       <c r="E1872" t="s">
         <v>2631</v>
@@ -40168,7 +40168,7 @@
         <v>2</v>
       </c>
       <c r="D1876">
-        <v>62.5899316517239</v>
+        <v>62.75</v>
       </c>
       <c r="E1876" t="s">
         <v>2632</v>
@@ -40185,7 +40185,7 @@
         <v>1</v>
       </c>
       <c r="D1877">
-        <v>751.0791798206868</v>
+        <v>753</v>
       </c>
       <c r="E1877" t="s">
         <v>2631</v>
@@ -40202,7 +40202,7 @@
         <v>2</v>
       </c>
       <c r="D1878">
-        <v>62.58993165172389</v>
+        <v>62.75</v>
       </c>
       <c r="E1878" t="s">
         <v>2632</v>
@@ -40219,7 +40219,7 @@
         <v>1</v>
       </c>
       <c r="D1879">
-        <v>751.0791798206867</v>
+        <v>753</v>
       </c>
       <c r="E1879" t="s">
         <v>2631</v>
@@ -40236,7 +40236,7 @@
         <v>2</v>
       </c>
       <c r="D1880">
-        <v>62.58993165172389</v>
+        <v>62.75</v>
       </c>
       <c r="E1880" t="s">
         <v>2632</v>
@@ -40253,7 +40253,7 @@
         <v>1</v>
       </c>
       <c r="D1881">
-        <v>751.0791798206867</v>
+        <v>753</v>
       </c>
       <c r="E1881" t="s">
         <v>2631</v>
@@ -41919,7 +41919,7 @@
         <v>3</v>
       </c>
       <c r="D1979">
-        <v>431.75</v>
+        <v>432.25</v>
       </c>
       <c r="E1979" t="s">
         <v>2631</v>
@@ -43126,7 +43126,7 @@
         <v>3</v>
       </c>
       <c r="D2050">
-        <v>83.18411361385348</v>
+        <v>83.455625</v>
       </c>
       <c r="E2050" t="s">
         <v>2632</v>
@@ -43143,7 +43143,7 @@
         <v>1</v>
       </c>
       <c r="D2051">
-        <v>1663.68227227707</v>
+        <v>1669.1125</v>
       </c>
       <c r="E2051" t="s">
         <v>2631</v>
@@ -43160,7 +43160,7 @@
         <v>3</v>
       </c>
       <c r="D2052">
-        <v>83.34529874820021</v>
+        <v>83.3453271512102</v>
       </c>
       <c r="E2052" t="s">
         <v>2632</v>
@@ -43177,7 +43177,7 @@
         <v>1</v>
       </c>
       <c r="D2053">
-        <v>833.4529874820021</v>
+        <v>833.453271512102</v>
       </c>
       <c r="E2053" t="s">
         <v>2631</v>
@@ -43194,7 +43194,7 @@
         <v>3</v>
       </c>
       <c r="D2054">
-        <v>83.85350328481861</v>
+        <v>82.60882896021141</v>
       </c>
       <c r="E2054" t="s">
         <v>2632</v>
@@ -43211,7 +43211,7 @@
         <v>1</v>
       </c>
       <c r="D2055">
-        <v>838.5350328481861</v>
+        <v>826.0882896021142</v>
       </c>
       <c r="E2055" t="s">
         <v>2631</v>
@@ -43534,7 +43534,7 @@
         <v>2</v>
       </c>
       <c r="D2074">
-        <v>100.9998363046044</v>
+        <v>101.0011662088796</v>
       </c>
       <c r="E2074" t="s">
         <v>2631</v>
@@ -43585,7 +43585,7 @@
         <v>2</v>
       </c>
       <c r="D2077">
-        <v>101.0061839065208</v>
+        <v>101.0064622442612</v>
       </c>
       <c r="E2077" t="s">
         <v>2631</v>
@@ -43857,7 +43857,7 @@
         <v>3</v>
       </c>
       <c r="D2093">
-        <v>154.9971183919379</v>
+        <v>155.0030810346741</v>
       </c>
       <c r="E2093" t="s">
         <v>2632</v>
@@ -43874,7 +43874,7 @@
         <v>1</v>
       </c>
       <c r="D2094">
-        <v>4649.913551758137</v>
+        <v>4650.092431040223</v>
       </c>
       <c r="E2094" t="s">
         <v>2631</v>
@@ -43891,7 +43891,7 @@
         <v>3</v>
       </c>
       <c r="D2095">
-        <v>151.7375</v>
+        <v>151.613125</v>
       </c>
       <c r="E2095" t="s">
         <v>2632</v>
@@ -43908,7 +43908,7 @@
         <v>1</v>
       </c>
       <c r="D2096">
-        <v>4552.125</v>
+        <v>4548.39375</v>
       </c>
       <c r="E2096" t="s">
         <v>2631</v>
@@ -43925,7 +43925,7 @@
         <v>14</v>
       </c>
       <c r="D2097">
-        <v>76.93703808033686</v>
+        <v>76.93811365340417</v>
       </c>
       <c r="E2097" t="s">
         <v>2632</v>
@@ -43942,7 +43942,7 @@
         <v>1</v>
       </c>
       <c r="D2098">
-        <v>1154.055571205053</v>
+        <v>1154.071704801063</v>
       </c>
       <c r="E2098" t="s">
         <v>2631</v>
@@ -43959,7 +43959,7 @@
         <v>10</v>
       </c>
       <c r="D2099">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2099" t="s">
         <v>2632</v>
@@ -43976,7 +43976,7 @@
         <v>1</v>
       </c>
       <c r="D2100">
-        <v>1920</v>
+        <v>1944</v>
       </c>
       <c r="E2100" t="s">
         <v>2631</v>
@@ -45591,7 +45591,7 @@
         <v>3</v>
       </c>
       <c r="D2195">
-        <v>95.56717767495245</v>
+        <v>95.56701540667758</v>
       </c>
       <c r="E2195" t="s">
         <v>2632</v>
@@ -45608,7 +45608,7 @@
         <v>1</v>
       </c>
       <c r="D2196">
-        <v>1146.806132099429</v>
+        <v>1146.804184880131</v>
       </c>
       <c r="E2196" t="s">
         <v>2631</v>
@@ -45625,7 +45625,7 @@
         <v>3</v>
       </c>
       <c r="D2197">
-        <v>95.56672368955233</v>
+        <v>95.56660361827154</v>
       </c>
       <c r="E2197" t="s">
         <v>2632</v>
@@ -45642,7 +45642,7 @@
         <v>1</v>
       </c>
       <c r="D2198">
-        <v>1146.800684274628</v>
+        <v>1146.799243419259</v>
       </c>
       <c r="E2198" t="s">
         <v>2631</v>
@@ -46101,7 +46101,7 @@
         <v>1</v>
       </c>
       <c r="D2225">
-        <v>461.25</v>
+        <v>461.75</v>
       </c>
       <c r="E2225" t="s">
         <v>2631</v>
@@ -47699,7 +47699,7 @@
         <v>1</v>
       </c>
       <c r="D2319">
-        <v>857</v>
+        <v>856.75</v>
       </c>
       <c r="E2319" t="s">
         <v>2631</v>
@@ -48464,7 +48464,7 @@
         <v>23</v>
       </c>
       <c r="D2364">
-        <v>40.91438829438248</v>
+        <v>40.86079521042857</v>
       </c>
       <c r="E2364" t="s">
         <v>2632</v>
@@ -48481,7 +48481,7 @@
         <v>2</v>
       </c>
       <c r="D2365">
-        <v>245.4863297662949</v>
+        <v>245.1647712625714</v>
       </c>
       <c r="E2365" t="s">
         <v>2631</v>
@@ -48498,7 +48498,7 @@
         <v>1</v>
       </c>
       <c r="D2366">
-        <v>2454.863297662949</v>
+        <v>2451.647712625714</v>
       </c>
       <c r="E2366" t="s">
         <v>2631</v>
@@ -48515,7 +48515,7 @@
         <v>23</v>
       </c>
       <c r="D2367">
-        <v>40.54625</v>
+        <v>40.795</v>
       </c>
       <c r="E2367" t="s">
         <v>2632</v>
@@ -48532,7 +48532,7 @@
         <v>2</v>
       </c>
       <c r="D2368">
-        <v>243.2775</v>
+        <v>244.77</v>
       </c>
       <c r="E2368" t="s">
         <v>2631</v>
@@ -48549,7 +48549,7 @@
         <v>1</v>
       </c>
       <c r="D2369">
-        <v>2432.775</v>
+        <v>2447.7</v>
       </c>
       <c r="E2369" t="s">
         <v>2631</v>
@@ -49110,7 +49110,7 @@
         <v>1</v>
       </c>
       <c r="D2402">
-        <v>175</v>
+        <v>178.5</v>
       </c>
       <c r="E2402" t="s">
         <v>2631</v>
@@ -50827,7 +50827,7 @@
         <v>2</v>
       </c>
       <c r="D2503">
-        <v>62.5953180477129</v>
+        <v>62.75</v>
       </c>
       <c r="E2503" t="s">
         <v>2632</v>
@@ -50844,7 +50844,7 @@
         <v>1</v>
       </c>
       <c r="D2504">
-        <v>751.1438165725548</v>
+        <v>753</v>
       </c>
       <c r="E2504" t="s">
         <v>2631</v>
@@ -51150,7 +51150,7 @@
         <v>1</v>
       </c>
       <c r="D2522">
-        <v>498.75</v>
+        <v>499.5</v>
       </c>
       <c r="E2522" t="s">
         <v>2631</v>
@@ -51167,7 +51167,7 @@
         <v>5</v>
       </c>
       <c r="D2523">
-        <v>322</v>
+        <v>330.5</v>
       </c>
       <c r="E2523" t="s">
         <v>2631</v>
@@ -51252,7 +51252,7 @@
         <v>1</v>
       </c>
       <c r="D2528">
-        <v>142.25</v>
+        <v>142.75</v>
       </c>
       <c r="E2528" t="s">
         <v>2631</v>
@@ -51830,7 +51830,7 @@
         <v>1</v>
       </c>
       <c r="D2562">
-        <v>350.5</v>
+        <v>335</v>
       </c>
       <c r="E2562" t="s">
         <v>2631</v>
@@ -53615,7 +53615,7 @@
         <v>1</v>
       </c>
       <c r="D2667">
-        <v>453.520439897097</v>
+        <v>453.4873366743128</v>
       </c>
       <c r="E2667" t="s">
         <v>2631</v>
@@ -53802,7 +53802,7 @@
         <v>3</v>
       </c>
       <c r="D2678">
-        <v>114.2066817078226</v>
+        <v>114.2066828326938</v>
       </c>
       <c r="E2678" t="s">
         <v>2632</v>
@@ -53819,7 +53819,7 @@
         <v>1</v>
       </c>
       <c r="D2679">
-        <v>685.2400902469356</v>
+        <v>685.2400969961629</v>
       </c>
       <c r="E2679" t="s">
         <v>2631</v>
@@ -55910,7 +55910,7 @@
         <v>3</v>
       </c>
       <c r="D2802">
-        <v>302.9664228705779</v>
+        <v>302.815689957408</v>
       </c>
       <c r="E2802" t="s">
         <v>2632</v>
@@ -55927,7 +55927,7 @@
         <v>1</v>
       </c>
       <c r="D2803">
-        <v>2423.731382964623</v>
+        <v>2422.525519659264</v>
       </c>
       <c r="E2803" t="s">
         <v>2631</v>
@@ -55944,7 +55944,7 @@
         <v>3</v>
       </c>
       <c r="D2804">
-        <v>304.3274489375671</v>
+        <v>303.7293147762929</v>
       </c>
       <c r="E2804" t="s">
         <v>2632</v>
@@ -55961,7 +55961,7 @@
         <v>1</v>
       </c>
       <c r="D2805">
-        <v>2434.619591500536</v>
+        <v>2429.834518210344</v>
       </c>
       <c r="E2805" t="s">
         <v>2631</v>
@@ -55978,7 +55978,7 @@
         <v>3</v>
       </c>
       <c r="D2806">
-        <v>390.5</v>
+        <v>389.75</v>
       </c>
       <c r="E2806" t="s">
         <v>2632</v>
@@ -55995,7 +55995,7 @@
         <v>1</v>
       </c>
       <c r="D2807">
-        <v>3124</v>
+        <v>3118</v>
       </c>
       <c r="E2807" t="s">
         <v>2631</v>
@@ -56012,7 +56012,7 @@
         <v>3</v>
       </c>
       <c r="D2808">
-        <v>395.5</v>
+        <v>392</v>
       </c>
       <c r="E2808" t="s">
         <v>2632</v>
@@ -56029,7 +56029,7 @@
         <v>1</v>
       </c>
       <c r="D2809">
-        <v>3164</v>
+        <v>3136</v>
       </c>
       <c r="E2809" t="s">
         <v>2631</v>
@@ -56675,7 +56675,7 @@
         <v>11</v>
       </c>
       <c r="D2847">
-        <v>20.64532491460925</v>
+        <v>20.64573919673112</v>
       </c>
       <c r="E2847" t="s">
         <v>2632</v>
@@ -56692,7 +56692,7 @@
         <v>2</v>
       </c>
       <c r="D2848">
-        <v>495.4877979506219</v>
+        <v>495.4977407215469</v>
       </c>
       <c r="E2848" t="s">
         <v>2631</v>
@@ -57253,7 +57253,7 @@
         <v>2</v>
       </c>
       <c r="D2881">
-        <v>105.5</v>
+        <v>104.25</v>
       </c>
       <c r="E2881" t="s">
         <v>2631</v>
@@ -57270,7 +57270,7 @@
         <v>2</v>
       </c>
       <c r="D2882">
-        <v>103.75</v>
+        <v>103.25</v>
       </c>
       <c r="E2882" t="s">
         <v>2631</v>
@@ -58987,7 +58987,7 @@
         <v>23</v>
       </c>
       <c r="D2983">
-        <v>50.37170289982798</v>
+        <v>50.37169752566348</v>
       </c>
       <c r="E2983" t="s">
         <v>2632</v>
@@ -59004,7 +59004,7 @@
         <v>1</v>
       </c>
       <c r="D2984">
-        <v>1208.920869595871</v>
+        <v>1208.920740615923</v>
       </c>
       <c r="E2984" t="s">
         <v>2631</v>
@@ -59480,7 +59480,7 @@
         <v>3</v>
       </c>
       <c r="D3012">
-        <v>25.25</v>
+        <v>25.5</v>
       </c>
       <c r="E3012" t="s">
         <v>2632</v>
@@ -59497,7 +59497,7 @@
         <v>1</v>
       </c>
       <c r="D3013">
-        <v>454.5</v>
+        <v>459</v>
       </c>
       <c r="E3013" t="s">
         <v>2631</v>
@@ -59786,7 +59786,7 @@
         <v>3</v>
       </c>
       <c r="D3030">
-        <v>66</v>
+        <v>66.75</v>
       </c>
       <c r="E3030" t="s">
         <v>2632</v>
@@ -59803,7 +59803,7 @@
         <v>1</v>
       </c>
       <c r="D3031">
-        <v>2112</v>
+        <v>2136</v>
       </c>
       <c r="E3031" t="s">
         <v>2631</v>
@@ -60500,7 +60500,7 @@
         <v>1</v>
       </c>
       <c r="D3072">
-        <v>458.25</v>
+        <v>460.25</v>
       </c>
       <c r="E3072" t="s">
         <v>2631</v>
@@ -62115,7 +62115,7 @@
         <v>7</v>
       </c>
       <c r="D3167">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="E3167" t="s">
         <v>2632</v>
@@ -62132,7 +62132,7 @@
         <v>1</v>
       </c>
       <c r="D3168">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="E3168" t="s">
         <v>2631</v>
@@ -62540,7 +62540,7 @@
         <v>2</v>
       </c>
       <c r="D3192">
-        <v>142.3088033169058</v>
+        <v>144.6228158671194</v>
       </c>
       <c r="E3192" t="s">
         <v>2631</v>
@@ -62727,7 +62727,7 @@
         <v>2</v>
       </c>
       <c r="D3203">
-        <v>203.5</v>
+        <v>202.5</v>
       </c>
       <c r="E3203" t="s">
         <v>2631</v>
@@ -62982,7 +62982,7 @@
         <v>10</v>
       </c>
       <c r="D3218">
-        <v>16.75</v>
+        <v>17.25</v>
       </c>
       <c r="E3218" t="s">
         <v>2632</v>
@@ -62999,7 +62999,7 @@
         <v>1</v>
       </c>
       <c r="D3219">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E3219" t="s">
         <v>2631</v>
@@ -63050,7 +63050,7 @@
         <v>10</v>
       </c>
       <c r="D3222">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="E3222" t="s">
         <v>2632</v>
@@ -63067,7 +63067,7 @@
         <v>1</v>
       </c>
       <c r="D3223">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E3223" t="s">
         <v>2631</v>
@@ -63118,7 +63118,7 @@
         <v>10</v>
       </c>
       <c r="D3226">
-        <v>41</v>
+        <v>41.75</v>
       </c>
       <c r="E3226" t="s">
         <v>2632</v>
@@ -63135,7 +63135,7 @@
         <v>1</v>
       </c>
       <c r="D3227">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="E3227" t="s">
         <v>2631</v>
@@ -63662,7 +63662,7 @@
         <v>10</v>
       </c>
       <c r="D3258">
-        <v>16.75884652383778</v>
+        <v>16.78088634735298</v>
       </c>
       <c r="E3258" t="s">
         <v>2632</v>
@@ -63679,7 +63679,7 @@
         <v>1</v>
       </c>
       <c r="D3259">
-        <v>201.1061582860534</v>
+        <v>201.3706361682358</v>
       </c>
       <c r="E3259" t="s">
         <v>2631</v>
@@ -63730,7 +63730,7 @@
         <v>10</v>
       </c>
       <c r="D3262">
-        <v>16.75778417749362</v>
+        <v>16.88648110094028</v>
       </c>
       <c r="E3262" t="s">
         <v>2632</v>
@@ -63747,7 +63747,7 @@
         <v>1</v>
       </c>
       <c r="D3263">
-        <v>201.0934101299234</v>
+        <v>202.6377732112834</v>
       </c>
       <c r="E3263" t="s">
         <v>2631</v>
@@ -63764,7 +63764,7 @@
         <v>10</v>
       </c>
       <c r="D3264">
-        <v>16.75778417749362</v>
+        <v>16.88648110094028</v>
       </c>
       <c r="E3264" t="s">
         <v>2632</v>
@@ -63781,7 +63781,7 @@
         <v>1</v>
       </c>
       <c r="D3265">
-        <v>201.0934101299234</v>
+        <v>202.6377732112834</v>
       </c>
       <c r="E3265" t="s">
         <v>2631</v>
@@ -63798,7 +63798,7 @@
         <v>10</v>
       </c>
       <c r="D3266">
-        <v>16.75790477093807</v>
+        <v>16.88649670125091</v>
       </c>
       <c r="E3266" t="s">
         <v>2632</v>
@@ -63815,7 +63815,7 @@
         <v>1</v>
       </c>
       <c r="D3267">
-        <v>201.0948572512568</v>
+        <v>202.637960415011</v>
       </c>
       <c r="E3267" t="s">
         <v>2631</v>
@@ -63832,7 +63832,7 @@
         <v>10</v>
       </c>
       <c r="D3268">
-        <v>16.75778417749362</v>
+        <v>16.88648110094028</v>
       </c>
       <c r="E3268" t="s">
         <v>2632</v>
@@ -63849,7 +63849,7 @@
         <v>1</v>
       </c>
       <c r="D3269">
-        <v>201.0934101299234</v>
+        <v>202.6377732112834</v>
       </c>
       <c r="E3269" t="s">
         <v>2631</v>
@@ -63866,7 +63866,7 @@
         <v>10</v>
       </c>
       <c r="D3270">
-        <v>16.75820109386608</v>
+        <v>16.78080112490835</v>
       </c>
       <c r="E3270" t="s">
         <v>2632</v>
@@ -63883,7 +63883,7 @@
         <v>1</v>
       </c>
       <c r="D3271">
-        <v>201.0984131263929</v>
+        <v>201.3696134989002</v>
       </c>
       <c r="E3271" t="s">
         <v>2631</v>
@@ -63951,7 +63951,7 @@
         <v>3</v>
       </c>
       <c r="D3275">
-        <v>47.676580606081</v>
+        <v>47.67658060621743</v>
       </c>
       <c r="E3275" t="s">
         <v>2632</v>
@@ -63968,7 +63968,7 @@
         <v>1</v>
       </c>
       <c r="D3276">
-        <v>572.118967272972</v>
+        <v>572.1189672746091</v>
       </c>
       <c r="E3276" t="s">
         <v>2631</v>
@@ -63985,7 +63985,7 @@
         <v>3</v>
       </c>
       <c r="D3277">
-        <v>47.67658048920451</v>
+        <v>47.67658049664266</v>
       </c>
       <c r="E3277" t="s">
         <v>2632</v>
@@ -64002,7 +64002,7 @@
         <v>1</v>
       </c>
       <c r="D3278">
-        <v>572.1189658704541</v>
+        <v>572.118965959712</v>
       </c>
       <c r="E3278" t="s">
         <v>2631</v>
@@ -64019,7 +64019,7 @@
         <v>3</v>
       </c>
       <c r="D3279">
-        <v>47.67658060933775</v>
+        <v>47.67658060942452</v>
       </c>
       <c r="E3279" t="s">
         <v>2632</v>
@@ -64036,7 +64036,7 @@
         <v>1</v>
       </c>
       <c r="D3280">
-        <v>572.1189673120531</v>
+        <v>572.1189673130942</v>
       </c>
       <c r="E3280" t="s">
         <v>2631</v>
@@ -64053,7 +64053,7 @@
         <v>3</v>
       </c>
       <c r="D3281">
-        <v>47.67658035163532</v>
+        <v>47.67658037183674</v>
       </c>
       <c r="E3281" t="s">
         <v>2632</v>
@@ -64070,7 +64070,7 @@
         <v>1</v>
       </c>
       <c r="D3282">
-        <v>572.1189642196238</v>
+        <v>572.1189644620408</v>
       </c>
       <c r="E3282" t="s">
         <v>2631</v>
@@ -64172,7 +64172,7 @@
         <v>10</v>
       </c>
       <c r="D3288">
-        <v>16.75788115383508</v>
+        <v>16.90969543550621</v>
       </c>
       <c r="E3288" t="s">
         <v>2632</v>
@@ -64189,7 +64189,7 @@
         <v>1</v>
       </c>
       <c r="D3289">
-        <v>201.0945738460209</v>
+        <v>202.9163452260745</v>
       </c>
       <c r="E3289" t="s">
         <v>2631</v>
@@ -64835,7 +64835,7 @@
         <v>3</v>
       </c>
       <c r="D3327">
-        <v>84</v>
+        <v>84.25</v>
       </c>
       <c r="E3327" t="s">
         <v>2632</v>
@@ -64852,7 +64852,7 @@
         <v>1</v>
       </c>
       <c r="D3328">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="E3328" t="s">
         <v>2631</v>
@@ -65022,7 +65022,7 @@
         <v>1</v>
       </c>
       <c r="D3338">
-        <v>589.8156254893743</v>
+        <v>589.8156254893742</v>
       </c>
       <c r="E3338" t="s">
         <v>2631</v>
@@ -65243,7 +65243,7 @@
         <v>80</v>
       </c>
       <c r="D3351">
-        <v>377.6075156684317</v>
+        <v>377.6002560931146</v>
       </c>
       <c r="E3351" t="s">
         <v>2632</v>
@@ -65260,7 +65260,7 @@
         <v>29</v>
       </c>
       <c r="D3352">
-        <v>755.2150313368635</v>
+        <v>755.2005121862292</v>
       </c>
       <c r="E3352" t="s">
         <v>2631</v>
@@ -65787,7 +65787,7 @@
         <v>3</v>
       </c>
       <c r="D3383">
-        <v>139.5</v>
+        <v>139.3386119373791</v>
       </c>
       <c r="E3383" t="s">
         <v>2632</v>
@@ -65804,7 +65804,7 @@
         <v>1</v>
       </c>
       <c r="D3384">
-        <v>1674</v>
+        <v>1672.063343248549</v>
       </c>
       <c r="E3384" t="s">
         <v>2631</v>
@@ -65821,7 +65821,7 @@
         <v>3</v>
       </c>
       <c r="D3385">
-        <v>138.25</v>
+        <v>138.0700684607997</v>
       </c>
       <c r="E3385" t="s">
         <v>2632</v>
@@ -65838,7 +65838,7 @@
         <v>1</v>
       </c>
       <c r="D3386">
-        <v>1659</v>
+        <v>1656.840821529597</v>
       </c>
       <c r="E3386" t="s">
         <v>2631</v>
@@ -66059,7 +66059,7 @@
         <v>3</v>
       </c>
       <c r="D3399">
-        <v>211.8680550172703</v>
+        <v>211.8543525562592</v>
       </c>
       <c r="E3399" t="s">
         <v>2632</v>
@@ -66076,7 +66076,7 @@
         <v>1</v>
       </c>
       <c r="D3400">
-        <v>2542.416660207244</v>
+        <v>2542.25223067511</v>
       </c>
       <c r="E3400" t="s">
         <v>2631</v>
@@ -66161,7 +66161,7 @@
         <v>3</v>
       </c>
       <c r="D3405">
-        <v>213.0463301820932</v>
+        <v>212.9723810773199</v>
       </c>
       <c r="E3405" t="s">
         <v>2632</v>
@@ -66178,7 +66178,7 @@
         <v>1</v>
       </c>
       <c r="D3406">
-        <v>2556.555962185118</v>
+        <v>2555.668572927839</v>
       </c>
       <c r="E3406" t="s">
         <v>2631</v>
@@ -68201,7 +68201,7 @@
         <v>80</v>
       </c>
       <c r="D3525">
-        <v>284.75</v>
+        <v>285</v>
       </c>
       <c r="E3525" t="s">
         <v>2632</v>
@@ -68218,7 +68218,7 @@
         <v>29</v>
       </c>
       <c r="D3526">
-        <v>854.25</v>
+        <v>855</v>
       </c>
       <c r="E3526" t="s">
         <v>2631</v>
@@ -68932,7 +68932,7 @@
         <v>10</v>
       </c>
       <c r="D3568">
-        <v>70</v>
+        <v>70.75</v>
       </c>
       <c r="E3568" t="s">
         <v>2632</v>
@@ -68949,7 +68949,7 @@
         <v>3</v>
       </c>
       <c r="D3569">
-        <v>350</v>
+        <v>353.75</v>
       </c>
       <c r="E3569" t="s">
         <v>2631</v>
@@ -68966,7 +68966,7 @@
         <v>1</v>
       </c>
       <c r="D3570">
-        <v>3500</v>
+        <v>3537.5</v>
       </c>
       <c r="E3570" t="s">
         <v>2631</v>
@@ -69459,7 +69459,7 @@
         <v>3</v>
       </c>
       <c r="D3599">
-        <v>47</v>
+        <v>46.75</v>
       </c>
       <c r="E3599" t="s">
         <v>2632</v>
@@ -69476,7 +69476,7 @@
         <v>1</v>
       </c>
       <c r="D3600">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E3600" t="s">
         <v>2631</v>
@@ -72315,7 +72315,7 @@
         <v>1</v>
       </c>
       <c r="D3767">
-        <v>633.75</v>
+        <v>633</v>
       </c>
       <c r="E3767" t="s">
         <v>2631</v>
@@ -76072,7 +76072,7 @@
         <v>3</v>
       </c>
       <c r="D3988">
-        <v>101.7975571284592</v>
+        <v>101.7975579951714</v>
       </c>
       <c r="E3988" t="s">
         <v>2632</v>
@@ -76089,7 +76089,7 @@
         <v>1</v>
       </c>
       <c r="D3989">
-        <v>1628.760914055347</v>
+        <v>1628.760927922742</v>
       </c>
       <c r="E3989" t="s">
         <v>2631</v>
@@ -76174,7 +76174,7 @@
         <v>3</v>
       </c>
       <c r="D3994">
-        <v>134</v>
+        <v>133.75</v>
       </c>
       <c r="E3994" t="s">
         <v>2631</v>

--- a/Pricing Logic/WS_uploads/manual/output_1223_chunk_2.xlsx
+++ b/Pricing Logic/WS_uploads/manual/output_1223_chunk_2.xlsx
@@ -7489,7 +7489,7 @@
     <t>بيتي  عصير مانجو كوكتيل محلي بالعسل - 50% سكر اقل Bee 225 مل</t>
   </si>
   <si>
-    <t>بسكويت اوريو بالكاكاو و الفانيليا فاميلى للمشاركة حجم جديد 14 قطعة - 122.5 جم</t>
+    <t>بسكويت اوريو بالكاكاو و الفانيليا فاميلى للمشاركة حجم جديد 6 عبوات - 112 جم</t>
   </si>
   <si>
     <t>سباجيتوس اكسترا شعرية حلوة بطعم الفراولة - 3 جنية</t>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>167</v>
+        <v>166.75</v>
       </c>
       <c r="E13" t="s">
         <v>2633</v>
@@ -8520,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>167</v>
+        <v>166.75</v>
       </c>
       <c r="E14" t="s">
         <v>2633</v>
@@ -8537,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>167</v>
+        <v>166.75</v>
       </c>
       <c r="E15" t="s">
         <v>2633</v>
@@ -9234,7 +9234,7 @@
         <v>3</v>
       </c>
       <c r="D56">
-        <v>52</v>
+        <v>52.75</v>
       </c>
       <c r="E56" t="s">
         <v>2634</v>
@@ -9251,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1560</v>
+        <v>1582.5</v>
       </c>
       <c r="E57" t="s">
         <v>2633</v>
@@ -12617,7 +12617,7 @@
         <v>5</v>
       </c>
       <c r="D255">
-        <v>647</v>
+        <v>646.5</v>
       </c>
       <c r="E255" t="s">
         <v>2633</v>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>163.5</v>
+        <v>163.25</v>
       </c>
       <c r="E339" t="s">
         <v>2633</v>
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>561.5</v>
+        <v>560.25</v>
       </c>
       <c r="E409" t="s">
         <v>2633</v>
@@ -15711,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="D437">
-        <v>186.2625235676997</v>
+        <v>186.2563056440097</v>
       </c>
       <c r="E437" t="s">
         <v>2633</v>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="D439">
-        <v>185.3296031237778</v>
+        <v>185.3274492461253</v>
       </c>
       <c r="E439" t="s">
         <v>2633</v>
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>130.5317088569254</v>
+        <v>130.5214176559302</v>
       </c>
       <c r="E445" t="s">
         <v>2633</v>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="D495">
-        <v>206.0241252414424</v>
+        <v>205.3814364663624</v>
       </c>
       <c r="E495" t="s">
         <v>2633</v>
@@ -16969,7 +16969,7 @@
         <v>1</v>
       </c>
       <c r="D511">
-        <v>243.25</v>
+        <v>236</v>
       </c>
       <c r="E511" t="s">
         <v>2633</v>
@@ -16986,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="D512">
-        <v>253.5</v>
+        <v>249</v>
       </c>
       <c r="E512" t="s">
         <v>2633</v>
@@ -17190,7 +17190,7 @@
         <v>5</v>
       </c>
       <c r="D524">
-        <v>545.5</v>
+        <v>543.5</v>
       </c>
       <c r="E524" t="s">
         <v>2633</v>
@@ -17275,7 +17275,7 @@
         <v>1</v>
       </c>
       <c r="D529">
-        <v>995.7449567679123</v>
+        <v>994.6398805950438</v>
       </c>
       <c r="E529" t="s">
         <v>2633</v>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>1735.75</v>
+        <v>1733.75</v>
       </c>
       <c r="E530" t="s">
         <v>2633</v>
@@ -18227,7 +18227,7 @@
         <v>23</v>
       </c>
       <c r="D585">
-        <v>43.25</v>
+        <v>43.5</v>
       </c>
       <c r="E585" t="s">
         <v>2634</v>
@@ -18244,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="E586" t="s">
         <v>2633</v>
@@ -18278,7 +18278,7 @@
         <v>22</v>
       </c>
       <c r="D588">
-        <v>1225</v>
+        <v>1224.5</v>
       </c>
       <c r="E588" t="s">
         <v>2633</v>
@@ -20743,7 +20743,7 @@
         <v>3</v>
       </c>
       <c r="D733">
-        <v>104</v>
+        <v>106.75</v>
       </c>
       <c r="E733" t="s">
         <v>2634</v>
@@ -20760,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="D734">
-        <v>1664</v>
+        <v>1708</v>
       </c>
       <c r="E734" t="s">
         <v>2633</v>
@@ -20777,7 +20777,7 @@
         <v>7</v>
       </c>
       <c r="D735">
-        <v>201</v>
+        <v>205.25</v>
       </c>
       <c r="E735" t="s">
         <v>2634</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="D736">
-        <v>2010</v>
+        <v>2052.5</v>
       </c>
       <c r="E736" t="s">
         <v>2633</v>
@@ -20811,7 +20811,7 @@
         <v>7</v>
       </c>
       <c r="D737">
-        <v>89.75</v>
+        <v>91.5</v>
       </c>
       <c r="E737" t="s">
         <v>2634</v>
@@ -20828,7 +20828,7 @@
         <v>1</v>
       </c>
       <c r="D738">
-        <v>1795</v>
+        <v>1830</v>
       </c>
       <c r="E738" t="s">
         <v>2633</v>
@@ -21287,7 +21287,7 @@
         <v>1</v>
       </c>
       <c r="D765">
-        <v>438.5</v>
+        <v>437.25</v>
       </c>
       <c r="E765" t="s">
         <v>2633</v>
@@ -21304,7 +21304,7 @@
         <v>1</v>
       </c>
       <c r="D766">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E766" t="s">
         <v>2633</v>
@@ -21355,7 +21355,7 @@
         <v>7</v>
       </c>
       <c r="D769">
-        <v>111.75</v>
+        <v>114.5</v>
       </c>
       <c r="E769" t="s">
         <v>2634</v>
@@ -21372,7 +21372,7 @@
         <v>1</v>
       </c>
       <c r="D770">
-        <v>2235</v>
+        <v>2290</v>
       </c>
       <c r="E770" t="s">
         <v>2633</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="D939">
-        <v>568.75</v>
+        <v>569.25</v>
       </c>
       <c r="E939" t="s">
         <v>2633</v>
@@ -24279,7 +24279,7 @@
         <v>1</v>
       </c>
       <c r="D941">
-        <v>783.75</v>
+        <v>784.25</v>
       </c>
       <c r="E941" t="s">
         <v>2633</v>
@@ -25911,7 +25911,7 @@
         <v>2</v>
       </c>
       <c r="D1037">
-        <v>104</v>
+        <v>104.25</v>
       </c>
       <c r="E1037" t="s">
         <v>2634</v>
@@ -25928,7 +25928,7 @@
         <v>1</v>
       </c>
       <c r="D1038">
-        <v>624</v>
+        <v>625.5</v>
       </c>
       <c r="E1038" t="s">
         <v>2633</v>
@@ -26404,7 +26404,7 @@
         <v>3</v>
       </c>
       <c r="D1066">
-        <v>359.25</v>
+        <v>358.25</v>
       </c>
       <c r="E1066" t="s">
         <v>2634</v>
@@ -26421,7 +26421,7 @@
         <v>1</v>
       </c>
       <c r="D1067">
-        <v>4311</v>
+        <v>4299</v>
       </c>
       <c r="E1067" t="s">
         <v>2633</v>
@@ -29566,7 +29566,7 @@
         <v>2</v>
       </c>
       <c r="D1252">
-        <v>152.25</v>
+        <v>150.25</v>
       </c>
       <c r="E1252" t="s">
         <v>2633</v>
@@ -29583,7 +29583,7 @@
         <v>2</v>
       </c>
       <c r="D1253">
-        <v>71.25</v>
+        <v>70.25</v>
       </c>
       <c r="E1253" t="s">
         <v>2633</v>
@@ -29821,7 +29821,7 @@
         <v>1</v>
       </c>
       <c r="D1267">
-        <v>102.25</v>
+        <v>101.75</v>
       </c>
       <c r="E1267" t="s">
         <v>2633</v>
@@ -30263,7 +30263,7 @@
         <v>2</v>
       </c>
       <c r="D1293">
-        <v>259.25</v>
+        <v>258.75</v>
       </c>
       <c r="E1293" t="s">
         <v>2633</v>
@@ -30280,7 +30280,7 @@
         <v>2</v>
       </c>
       <c r="D1294">
-        <v>273</v>
+        <v>272.5</v>
       </c>
       <c r="E1294" t="s">
         <v>2633</v>
@@ -30671,7 +30671,7 @@
         <v>7</v>
       </c>
       <c r="D1317">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="E1317" t="s">
         <v>2634</v>
@@ -30688,7 +30688,7 @@
         <v>2</v>
       </c>
       <c r="D1318">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E1318" t="s">
         <v>2633</v>
@@ -31385,7 +31385,7 @@
         <v>1</v>
       </c>
       <c r="D1359">
-        <v>163.5</v>
+        <v>163.25</v>
       </c>
       <c r="E1359" t="s">
         <v>2633</v>
@@ -31742,7 +31742,7 @@
         <v>1</v>
       </c>
       <c r="D1380">
-        <v>253.75</v>
+        <v>247</v>
       </c>
       <c r="E1380" t="s">
         <v>2633</v>
@@ -33272,7 +33272,7 @@
         <v>1</v>
       </c>
       <c r="D1470">
-        <v>728.5</v>
+        <v>726.5</v>
       </c>
       <c r="E1470" t="s">
         <v>2633</v>
@@ -33289,7 +33289,7 @@
         <v>1</v>
       </c>
       <c r="D1471">
-        <v>631.25</v>
+        <v>629.5</v>
       </c>
       <c r="E1471" t="s">
         <v>2633</v>
@@ -35924,7 +35924,7 @@
         <v>1</v>
       </c>
       <c r="D1626">
-        <v>372.75</v>
+        <v>369.5</v>
       </c>
       <c r="E1626" t="s">
         <v>2633</v>
@@ -36859,7 +36859,7 @@
         <v>4</v>
       </c>
       <c r="D1681">
-        <v>207.25</v>
+        <v>206.75</v>
       </c>
       <c r="E1681" t="s">
         <v>2634</v>
@@ -36876,7 +36876,7 @@
         <v>1</v>
       </c>
       <c r="D1682">
-        <v>2487</v>
+        <v>2481</v>
       </c>
       <c r="E1682" t="s">
         <v>2633</v>
@@ -36893,7 +36893,7 @@
         <v>4</v>
       </c>
       <c r="D1683">
-        <v>202</v>
+        <v>201.75</v>
       </c>
       <c r="E1683" t="s">
         <v>2634</v>
@@ -36910,7 +36910,7 @@
         <v>1</v>
       </c>
       <c r="D1684">
-        <v>2424</v>
+        <v>2421</v>
       </c>
       <c r="E1684" t="s">
         <v>2633</v>
@@ -36927,7 +36927,7 @@
         <v>4</v>
       </c>
       <c r="D1685">
-        <v>207.25</v>
+        <v>206.75</v>
       </c>
       <c r="E1685" t="s">
         <v>2634</v>
@@ -36944,7 +36944,7 @@
         <v>1</v>
       </c>
       <c r="D1686">
-        <v>2487</v>
+        <v>2481</v>
       </c>
       <c r="E1686" t="s">
         <v>2633</v>
@@ -37386,7 +37386,7 @@
         <v>2</v>
       </c>
       <c r="D1712">
-        <v>80.75</v>
+        <v>79.75</v>
       </c>
       <c r="E1712" t="s">
         <v>2633</v>
@@ -37828,7 +37828,7 @@
         <v>3</v>
       </c>
       <c r="D1738">
-        <v>43.30571893095189</v>
+        <v>43.30582159140429</v>
       </c>
       <c r="E1738" t="s">
         <v>2634</v>
@@ -37845,7 +37845,7 @@
         <v>1</v>
       </c>
       <c r="D1739">
-        <v>259.8343135857114</v>
+        <v>259.8349295484257</v>
       </c>
       <c r="E1739" t="s">
         <v>2633</v>
@@ -37862,7 +37862,7 @@
         <v>3</v>
       </c>
       <c r="D1740">
-        <v>43.30594454807976</v>
+        <v>43.3059759019055</v>
       </c>
       <c r="E1740" t="s">
         <v>2634</v>
@@ -37879,7 +37879,7 @@
         <v>1</v>
       </c>
       <c r="D1741">
-        <v>259.8356672884785</v>
+        <v>259.835855411433</v>
       </c>
       <c r="E1741" t="s">
         <v>2633</v>
@@ -38712,7 +38712,7 @@
         <v>2</v>
       </c>
       <c r="D1790">
-        <v>90.75</v>
+        <v>89.5</v>
       </c>
       <c r="E1790" t="s">
         <v>2633</v>
@@ -39188,7 +39188,7 @@
         <v>2</v>
       </c>
       <c r="D1818">
-        <v>157</v>
+        <v>125.75</v>
       </c>
       <c r="E1818" t="s">
         <v>2633</v>
@@ -40854,7 +40854,7 @@
         <v>1</v>
       </c>
       <c r="D1916">
-        <v>280.5411463885782</v>
+        <v>281.4216422157482</v>
       </c>
       <c r="E1916" t="s">
         <v>2633</v>
@@ -42197,7 +42197,7 @@
         <v>12</v>
       </c>
       <c r="D1995">
-        <v>867.5</v>
+        <v>866.75</v>
       </c>
       <c r="E1995" t="s">
         <v>2633</v>
@@ -43438,7 +43438,7 @@
         <v>2</v>
       </c>
       <c r="D2068">
-        <v>101.0023777716965</v>
+        <v>101.0028324563169</v>
       </c>
       <c r="E2068" t="s">
         <v>2633</v>
@@ -43489,7 +43489,7 @@
         <v>2</v>
       </c>
       <c r="D2071">
-        <v>101.0064622442612</v>
+        <v>101.0066488238119</v>
       </c>
       <c r="E2071" t="s">
         <v>2633</v>
@@ -43506,7 +43506,7 @@
         <v>2</v>
       </c>
       <c r="D2072">
-        <v>101.0023773024677</v>
+        <v>101.0033991919074</v>
       </c>
       <c r="E2072" t="s">
         <v>2633</v>
@@ -43829,7 +43829,7 @@
         <v>14</v>
       </c>
       <c r="D2091">
-        <v>76.9387148421209</v>
+        <v>76.93888412747813</v>
       </c>
       <c r="E2091" t="s">
         <v>2634</v>
@@ -43846,7 +43846,7 @@
         <v>1</v>
       </c>
       <c r="D2092">
-        <v>1154.080722631814</v>
+        <v>1154.083261912172</v>
       </c>
       <c r="E2092" t="s">
         <v>2633</v>
@@ -46753,7 +46753,7 @@
         <v>2</v>
       </c>
       <c r="D2263">
-        <v>199.25</v>
+        <v>190.75</v>
       </c>
       <c r="E2263" t="s">
         <v>2633</v>
@@ -46770,7 +46770,7 @@
         <v>2</v>
       </c>
       <c r="D2264">
-        <v>199.25</v>
+        <v>190.25</v>
       </c>
       <c r="E2264" t="s">
         <v>2633</v>
@@ -49014,7 +49014,7 @@
         <v>1</v>
       </c>
       <c r="D2396">
-        <v>178.5</v>
+        <v>177.75</v>
       </c>
       <c r="E2396" t="s">
         <v>2633</v>
@@ -49099,7 +49099,7 @@
         <v>2</v>
       </c>
       <c r="D2401">
-        <v>124.5</v>
+        <v>120.25</v>
       </c>
       <c r="E2401" t="s">
         <v>2633</v>
@@ -49541,7 +49541,7 @@
         <v>3</v>
       </c>
       <c r="D2427">
-        <v>189.75</v>
+        <v>189.5</v>
       </c>
       <c r="E2427" t="s">
         <v>2634</v>
@@ -49558,7 +49558,7 @@
         <v>1</v>
       </c>
       <c r="D2428">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="E2428" t="s">
         <v>2633</v>
@@ -49575,7 +49575,7 @@
         <v>3</v>
       </c>
       <c r="D2429">
-        <v>150.25</v>
+        <v>150</v>
       </c>
       <c r="E2429" t="s">
         <v>2634</v>
@@ -49592,7 +49592,7 @@
         <v>1</v>
       </c>
       <c r="D2430">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="E2430" t="s">
         <v>2633</v>
@@ -49609,7 +49609,7 @@
         <v>3</v>
       </c>
       <c r="D2431">
-        <v>170.5</v>
+        <v>170.25</v>
       </c>
       <c r="E2431" t="s">
         <v>2634</v>
@@ -49626,7 +49626,7 @@
         <v>1</v>
       </c>
       <c r="D2432">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="E2432" t="s">
         <v>2633</v>
@@ -49643,7 +49643,7 @@
         <v>3</v>
       </c>
       <c r="D2433">
-        <v>162</v>
+        <v>161.75</v>
       </c>
       <c r="E2433" t="s">
         <v>2634</v>
@@ -49660,7 +49660,7 @@
         <v>1</v>
       </c>
       <c r="D2434">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="E2434" t="s">
         <v>2633</v>
@@ -49677,7 +49677,7 @@
         <v>21</v>
       </c>
       <c r="D2435">
-        <v>87.75</v>
+        <v>87.5</v>
       </c>
       <c r="E2435" t="s">
         <v>2634</v>
@@ -49694,7 +49694,7 @@
         <v>1</v>
       </c>
       <c r="D2436">
-        <v>526.5</v>
+        <v>525</v>
       </c>
       <c r="E2436" t="s">
         <v>2633</v>
@@ -50272,7 +50272,7 @@
         <v>3</v>
       </c>
       <c r="D2470">
-        <v>26.75</v>
+        <v>26.5</v>
       </c>
       <c r="E2470" t="s">
         <v>2634</v>
@@ -50289,7 +50289,7 @@
         <v>1</v>
       </c>
       <c r="D2471">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E2471" t="s">
         <v>2633</v>
@@ -51020,7 +51020,7 @@
         <v>1</v>
       </c>
       <c r="D2514">
-        <v>628</v>
+        <v>627.75</v>
       </c>
       <c r="E2514" t="s">
         <v>2633</v>
@@ -51054,7 +51054,7 @@
         <v>1</v>
       </c>
       <c r="D2516">
-        <v>499.5</v>
+        <v>500</v>
       </c>
       <c r="E2516" t="s">
         <v>2633</v>
@@ -51819,7 +51819,7 @@
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>731.325</v>
+        <v>728.464375</v>
       </c>
       <c r="E2561" t="s">
         <v>2633</v>
@@ -53451,7 +53451,7 @@
         <v>1</v>
       </c>
       <c r="D2657">
-        <v>455.7140708322303</v>
+        <v>455.479440252061</v>
       </c>
       <c r="E2657" t="s">
         <v>2633</v>
@@ -53519,7 +53519,7 @@
         <v>1</v>
       </c>
       <c r="D2661">
-        <v>453.4873366743128</v>
+        <v>453.3532261820073</v>
       </c>
       <c r="E2661" t="s">
         <v>2633</v>
@@ -54658,7 +54658,7 @@
         <v>2</v>
       </c>
       <c r="D2728">
-        <v>536.5</v>
+        <v>535.75</v>
       </c>
       <c r="E2728" t="s">
         <v>2633</v>
@@ -54675,7 +54675,7 @@
         <v>2</v>
       </c>
       <c r="D2729">
-        <v>560.75</v>
+        <v>560</v>
       </c>
       <c r="E2729" t="s">
         <v>2633</v>
@@ -54692,7 +54692,7 @@
         <v>2</v>
       </c>
       <c r="D2730">
-        <v>565.5</v>
+        <v>564.75</v>
       </c>
       <c r="E2730" t="s">
         <v>2633</v>
@@ -55168,7 +55168,7 @@
         <v>1</v>
       </c>
       <c r="D2758">
-        <v>1602.5</v>
+        <v>1600.75</v>
       </c>
       <c r="E2758" t="s">
         <v>2633</v>
@@ -55814,7 +55814,7 @@
         <v>3</v>
       </c>
       <c r="D2796">
-        <v>302.815689957408</v>
+        <v>302.6144454829098</v>
       </c>
       <c r="E2796" t="s">
         <v>2634</v>
@@ -55831,7 +55831,7 @@
         <v>1</v>
       </c>
       <c r="D2797">
-        <v>2422.525519659264</v>
+        <v>2420.915563863278</v>
       </c>
       <c r="E2797" t="s">
         <v>2633</v>
@@ -55848,7 +55848,7 @@
         <v>3</v>
       </c>
       <c r="D2798">
-        <v>303.7293147762929</v>
+        <v>303.2173476560826</v>
       </c>
       <c r="E2798" t="s">
         <v>2634</v>
@@ -55865,7 +55865,7 @@
         <v>1</v>
       </c>
       <c r="D2799">
-        <v>2429.834518210344</v>
+        <v>2425.738781248661</v>
       </c>
       <c r="E2799" t="s">
         <v>2633</v>
@@ -55882,7 +55882,7 @@
         <v>3</v>
       </c>
       <c r="D2800">
-        <v>389.25</v>
+        <v>388.75</v>
       </c>
       <c r="E2800" t="s">
         <v>2634</v>
@@ -55899,7 +55899,7 @@
         <v>1</v>
       </c>
       <c r="D2801">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="E2801" t="s">
         <v>2633</v>
@@ -55916,7 +55916,7 @@
         <v>3</v>
       </c>
       <c r="D2802">
-        <v>392</v>
+        <v>391.75</v>
       </c>
       <c r="E2802" t="s">
         <v>2634</v>
@@ -55933,7 +55933,7 @@
         <v>1</v>
       </c>
       <c r="D2803">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="E2803" t="s">
         <v>2633</v>
@@ -56188,7 +56188,7 @@
         <v>11</v>
       </c>
       <c r="D2818">
-        <v>60.321875</v>
+        <v>60.695</v>
       </c>
       <c r="E2818" t="s">
         <v>2634</v>
@@ -56205,7 +56205,7 @@
         <v>15</v>
       </c>
       <c r="D2819">
-        <v>723.8625</v>
+        <v>728.34</v>
       </c>
       <c r="E2819" t="s">
         <v>2633</v>
@@ -56222,7 +56222,7 @@
         <v>16</v>
       </c>
       <c r="D2820">
-        <v>1447.725</v>
+        <v>1456.68</v>
       </c>
       <c r="E2820" t="s">
         <v>2633</v>
@@ -56239,7 +56239,7 @@
         <v>1</v>
       </c>
       <c r="D2821">
-        <v>2895.45</v>
+        <v>2913.36</v>
       </c>
       <c r="E2821" t="s">
         <v>2633</v>
@@ -57888,7 +57888,7 @@
         <v>3</v>
       </c>
       <c r="D2918">
-        <v>306.25</v>
+        <v>306</v>
       </c>
       <c r="E2918" t="s">
         <v>2634</v>
@@ -57905,7 +57905,7 @@
         <v>1</v>
       </c>
       <c r="D2919">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="E2919" t="s">
         <v>2633</v>
@@ -58126,7 +58126,7 @@
         <v>3</v>
       </c>
       <c r="D2932">
-        <v>385.5</v>
+        <v>385.25</v>
       </c>
       <c r="E2932" t="s">
         <v>2634</v>
@@ -58143,7 +58143,7 @@
         <v>1</v>
       </c>
       <c r="D2933">
-        <v>4626</v>
+        <v>4623</v>
       </c>
       <c r="E2933" t="s">
         <v>2633</v>
@@ -58160,7 +58160,7 @@
         <v>3</v>
       </c>
       <c r="D2934">
-        <v>385.25</v>
+        <v>385</v>
       </c>
       <c r="E2934" t="s">
         <v>2634</v>
@@ -58177,7 +58177,7 @@
         <v>1</v>
       </c>
       <c r="D2935">
-        <v>4623</v>
+        <v>4620</v>
       </c>
       <c r="E2935" t="s">
         <v>2633</v>
@@ -58194,7 +58194,7 @@
         <v>3</v>
       </c>
       <c r="D2936">
-        <v>383</v>
+        <v>382.75</v>
       </c>
       <c r="E2936" t="s">
         <v>2634</v>
@@ -58211,7 +58211,7 @@
         <v>1</v>
       </c>
       <c r="D2937">
-        <v>4596</v>
+        <v>4593</v>
       </c>
       <c r="E2937" t="s">
         <v>2633</v>
@@ -58262,7 +58262,7 @@
         <v>3</v>
       </c>
       <c r="D2940">
-        <v>252.75</v>
+        <v>252.5</v>
       </c>
       <c r="E2940" t="s">
         <v>2634</v>
@@ -58279,7 +58279,7 @@
         <v>1</v>
       </c>
       <c r="D2941">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="E2941" t="s">
         <v>2633</v>
@@ -58296,7 +58296,7 @@
         <v>3</v>
       </c>
       <c r="D2942">
-        <v>341.5</v>
+        <v>341.25</v>
       </c>
       <c r="E2942" t="s">
         <v>2634</v>
@@ -58313,7 +58313,7 @@
         <v>1</v>
       </c>
       <c r="D2943">
-        <v>4098</v>
+        <v>4095</v>
       </c>
       <c r="E2943" t="s">
         <v>2633</v>
@@ -58330,7 +58330,7 @@
         <v>3</v>
       </c>
       <c r="D2944">
-        <v>362</v>
+        <v>361.75</v>
       </c>
       <c r="E2944" t="s">
         <v>2634</v>
@@ -58347,7 +58347,7 @@
         <v>1</v>
       </c>
       <c r="D2945">
-        <v>4344</v>
+        <v>4341</v>
       </c>
       <c r="E2945" t="s">
         <v>2633</v>
@@ -58364,7 +58364,7 @@
         <v>3</v>
       </c>
       <c r="D2946">
-        <v>274.5</v>
+        <v>274.25</v>
       </c>
       <c r="E2946" t="s">
         <v>2634</v>
@@ -58381,7 +58381,7 @@
         <v>1</v>
       </c>
       <c r="D2947">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="E2947" t="s">
         <v>2633</v>
@@ -58466,7 +58466,7 @@
         <v>3</v>
       </c>
       <c r="D2952">
-        <v>364.75</v>
+        <v>364.5</v>
       </c>
       <c r="E2952" t="s">
         <v>2634</v>
@@ -58483,7 +58483,7 @@
         <v>1</v>
       </c>
       <c r="D2953">
-        <v>4377</v>
+        <v>4374</v>
       </c>
       <c r="E2953" t="s">
         <v>2633</v>
@@ -60132,7 +60132,7 @@
         <v>26</v>
       </c>
       <c r="D3050">
-        <v>214.25</v>
+        <v>216.25</v>
       </c>
       <c r="E3050" t="s">
         <v>2633</v>
@@ -62478,7 +62478,7 @@
         <v>2</v>
       </c>
       <c r="D3188">
-        <v>144.6228158671194</v>
+        <v>142.3088033169058</v>
       </c>
       <c r="E3188" t="s">
         <v>2633</v>
@@ -63600,7 +63600,7 @@
         <v>10</v>
       </c>
       <c r="D3254">
-        <v>16.78084375432364</v>
+        <v>16.7808237553615</v>
       </c>
       <c r="E3254" t="s">
         <v>2634</v>
@@ -63617,7 +63617,7 @@
         <v>1</v>
       </c>
       <c r="D3255">
-        <v>201.3701250518837</v>
+        <v>201.369885064338</v>
       </c>
       <c r="E3255" t="s">
         <v>2633</v>
@@ -63736,7 +63736,7 @@
         <v>10</v>
       </c>
       <c r="D3262">
-        <v>16.88649480426149</v>
+        <v>16.88649375627131</v>
       </c>
       <c r="E3262" t="s">
         <v>2634</v>
@@ -63753,7 +63753,7 @@
         <v>1</v>
       </c>
       <c r="D3263">
-        <v>202.6379376511379</v>
+        <v>202.6379250752557</v>
       </c>
       <c r="E3263" t="s">
         <v>2633</v>
@@ -63804,7 +63804,7 @@
         <v>10</v>
       </c>
       <c r="D3266">
-        <v>16.90991336722891</v>
+        <v>16.90989275463705</v>
       </c>
       <c r="E3266" t="s">
         <v>2634</v>
@@ -63821,7 +63821,7 @@
         <v>1</v>
       </c>
       <c r="D3267">
-        <v>202.9189604067469</v>
+        <v>202.9187130556446</v>
       </c>
       <c r="E3267" t="s">
         <v>2633</v>
@@ -63889,7 +63889,7 @@
         <v>3</v>
       </c>
       <c r="D3271">
-        <v>47.67658060621743</v>
+        <v>47.67658060636319</v>
       </c>
       <c r="E3271" t="s">
         <v>2634</v>
@@ -63906,7 +63906,7 @@
         <v>1</v>
       </c>
       <c r="D3272">
-        <v>572.1189672746091</v>
+        <v>572.1189672763583</v>
       </c>
       <c r="E3272" t="s">
         <v>2633</v>
@@ -63991,7 +63991,7 @@
         <v>3</v>
       </c>
       <c r="D3277">
-        <v>47.67658037183674</v>
+        <v>47.67658037844584</v>
       </c>
       <c r="E3277" t="s">
         <v>2634</v>
@@ -64008,7 +64008,7 @@
         <v>1</v>
       </c>
       <c r="D3278">
-        <v>572.1189644620408</v>
+        <v>572.1189645413501</v>
       </c>
       <c r="E3278" t="s">
         <v>2633</v>
@@ -64110,7 +64110,7 @@
         <v>10</v>
       </c>
       <c r="D3284">
-        <v>16.90968082678818</v>
+        <v>16.90967614180531</v>
       </c>
       <c r="E3284" t="s">
         <v>2634</v>
@@ -64127,7 +64127,7 @@
         <v>1</v>
       </c>
       <c r="D3285">
-        <v>202.9161699214581</v>
+        <v>202.9161137016637</v>
       </c>
       <c r="E3285" t="s">
         <v>2633</v>
@@ -66524,7 +66524,7 @@
         <v>7</v>
       </c>
       <c r="D3426">
-        <v>135.25</v>
+        <v>138.25</v>
       </c>
       <c r="E3426" t="s">
         <v>2634</v>
@@ -66541,7 +66541,7 @@
         <v>1</v>
       </c>
       <c r="D3427">
-        <v>2705</v>
+        <v>2765</v>
       </c>
       <c r="E3427" t="s">
         <v>2633</v>
@@ -66898,7 +66898,7 @@
         <v>7</v>
       </c>
       <c r="D3448">
-        <v>20.25</v>
+        <v>21</v>
       </c>
       <c r="E3448" t="s">
         <v>2634</v>
@@ -66915,7 +66915,7 @@
         <v>1</v>
       </c>
       <c r="D3449">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E3449" t="s">
         <v>2633</v>
@@ -67374,7 +67374,7 @@
         <v>3</v>
       </c>
       <c r="D3476">
-        <v>81</v>
+        <v>81.25</v>
       </c>
       <c r="E3476" t="s">
         <v>2634</v>
@@ -67391,7 +67391,7 @@
         <v>2</v>
       </c>
       <c r="D3477">
-        <v>243</v>
+        <v>243.75</v>
       </c>
       <c r="E3477" t="s">
         <v>2633</v>
@@ -68564,7 +68564,7 @@
         <v>3</v>
       </c>
       <c r="D3546">
-        <v>398.75</v>
+        <v>398.5</v>
       </c>
       <c r="E3546" t="s">
         <v>2634</v>
@@ -68581,7 +68581,7 @@
         <v>1</v>
       </c>
       <c r="D3547">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="E3547" t="s">
         <v>2633</v>
@@ -68598,7 +68598,7 @@
         <v>3</v>
       </c>
       <c r="D3548">
-        <v>398.75</v>
+        <v>398.5</v>
       </c>
       <c r="E3548" t="s">
         <v>2634</v>
@@ -68615,7 +68615,7 @@
         <v>1</v>
       </c>
       <c r="D3549">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="E3549" t="s">
         <v>2633</v>
@@ -68632,7 +68632,7 @@
         <v>3</v>
       </c>
       <c r="D3550">
-        <v>413.75</v>
+        <v>413.5</v>
       </c>
       <c r="E3550" t="s">
         <v>2634</v>
@@ -68649,7 +68649,7 @@
         <v>1</v>
       </c>
       <c r="D3551">
-        <v>4965</v>
+        <v>4962</v>
       </c>
       <c r="E3551" t="s">
         <v>2633</v>
@@ -68666,7 +68666,7 @@
         <v>3</v>
       </c>
       <c r="D3552">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E3552" t="s">
         <v>2634</v>
@@ -68683,7 +68683,7 @@
         <v>1</v>
       </c>
       <c r="D3553">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E3553" t="s">
         <v>2633</v>
@@ -68700,7 +68700,7 @@
         <v>3</v>
       </c>
       <c r="D3554">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E3554" t="s">
         <v>2634</v>
@@ -68717,7 +68717,7 @@
         <v>1</v>
       </c>
       <c r="D3555">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E3555" t="s">
         <v>2633</v>
@@ -68734,7 +68734,7 @@
         <v>3</v>
       </c>
       <c r="D3556">
-        <v>408.25</v>
+        <v>408</v>
       </c>
       <c r="E3556" t="s">
         <v>2634</v>
@@ -68751,7 +68751,7 @@
         <v>1</v>
       </c>
       <c r="D3557">
-        <v>4899</v>
+        <v>4896</v>
       </c>
       <c r="E3557" t="s">
         <v>2633</v>
@@ -68768,7 +68768,7 @@
         <v>3</v>
       </c>
       <c r="D3558">
-        <v>408.25</v>
+        <v>408</v>
       </c>
       <c r="E3558" t="s">
         <v>2634</v>
@@ -68785,7 +68785,7 @@
         <v>1</v>
       </c>
       <c r="D3559">
-        <v>4899</v>
+        <v>4896</v>
       </c>
       <c r="E3559" t="s">
         <v>2633</v>
@@ -68802,7 +68802,7 @@
         <v>3</v>
       </c>
       <c r="D3560">
-        <v>474.5</v>
+        <v>474.25</v>
       </c>
       <c r="E3560" t="s">
         <v>2634</v>
@@ -68819,7 +68819,7 @@
         <v>1</v>
       </c>
       <c r="D3561">
-        <v>5694</v>
+        <v>5691</v>
       </c>
       <c r="E3561" t="s">
         <v>2633</v>
@@ -69363,7 +69363,7 @@
         <v>3</v>
       </c>
       <c r="D3593">
-        <v>23.6726398629242</v>
+        <v>23.63992911019316</v>
       </c>
       <c r="E3593" t="s">
         <v>2634</v>
@@ -69380,7 +69380,7 @@
         <v>1</v>
       </c>
       <c r="D3594">
-        <v>284.0716783550905</v>
+        <v>283.6791493223179</v>
       </c>
       <c r="E3594" t="s">
         <v>2633</v>
@@ -69703,7 +69703,7 @@
         <v>3</v>
       </c>
       <c r="D3613">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E3613" t="s">
         <v>2634</v>
@@ -69720,7 +69720,7 @@
         <v>1</v>
       </c>
       <c r="D3614">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E3614" t="s">
         <v>2633</v>
@@ -69737,7 +69737,7 @@
         <v>3</v>
       </c>
       <c r="D3615">
-        <v>399.75</v>
+        <v>399.5</v>
       </c>
       <c r="E3615" t="s">
         <v>2634</v>
@@ -69754,7 +69754,7 @@
         <v>1</v>
       </c>
       <c r="D3616">
-        <v>4797</v>
+        <v>4794</v>
       </c>
       <c r="E3616" t="s">
         <v>2633</v>
@@ -70332,7 +70332,7 @@
         <v>1</v>
       </c>
       <c r="D3650">
-        <v>83.75</v>
+        <v>84</v>
       </c>
       <c r="E3650" t="s">
         <v>2633</v>
@@ -70689,7 +70689,7 @@
         <v>2</v>
       </c>
       <c r="D3671">
-        <v>206.0781616846951</v>
+        <v>201.9322195939165</v>
       </c>
       <c r="E3671" t="s">
         <v>2633</v>
@@ -70740,7 +70740,7 @@
         <v>2</v>
       </c>
       <c r="D3674">
-        <v>203.25</v>
+        <v>202.75</v>
       </c>
       <c r="E3674" t="s">
         <v>2633</v>
@@ -70757,7 +70757,7 @@
         <v>2</v>
       </c>
       <c r="D3675">
-        <v>219.0627041627368</v>
+        <v>212.9277290527361</v>
       </c>
       <c r="E3675" t="s">
         <v>2633</v>
@@ -70774,7 +70774,7 @@
         <v>2</v>
       </c>
       <c r="D3676">
-        <v>213.25</v>
+        <v>211.75</v>
       </c>
       <c r="E3676" t="s">
         <v>2633</v>
@@ -70808,7 +70808,7 @@
         <v>2</v>
       </c>
       <c r="D3678">
-        <v>214.2292118388783</v>
+        <v>212.8169208147518</v>
       </c>
       <c r="E3678" t="s">
         <v>2633</v>
@@ -70825,7 +70825,7 @@
         <v>2</v>
       </c>
       <c r="D3679">
-        <v>216.9028063817943</v>
+        <v>212.7823494894533</v>
       </c>
       <c r="E3679" t="s">
         <v>2633</v>
@@ -70842,7 +70842,7 @@
         <v>2</v>
       </c>
       <c r="D3680">
-        <v>216.3187063422952</v>
+        <v>212.8415619319858</v>
       </c>
       <c r="E3680" t="s">
         <v>2633</v>
@@ -71029,7 +71029,7 @@
         <v>3</v>
       </c>
       <c r="D3691">
-        <v>428.75</v>
+        <v>428.5</v>
       </c>
       <c r="E3691" t="s">
         <v>2634</v>
@@ -71046,7 +71046,7 @@
         <v>1</v>
       </c>
       <c r="D3692">
-        <v>5145</v>
+        <v>5142</v>
       </c>
       <c r="E3692" t="s">
         <v>2633</v>
@@ -71063,7 +71063,7 @@
         <v>3</v>
       </c>
       <c r="D3693">
-        <v>465</v>
+        <v>464.75</v>
       </c>
       <c r="E3693" t="s">
         <v>2634</v>
@@ -71080,7 +71080,7 @@
         <v>1</v>
       </c>
       <c r="D3694">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="E3694" t="s">
         <v>2633</v>
@@ -71488,7 +71488,7 @@
         <v>2</v>
       </c>
       <c r="D3718">
-        <v>96.25</v>
+        <v>96</v>
       </c>
       <c r="E3718" t="s">
         <v>2634</v>
@@ -71505,7 +71505,7 @@
         <v>1</v>
       </c>
       <c r="D3719">
-        <v>1732.5</v>
+        <v>1728</v>
       </c>
       <c r="E3719" t="s">
         <v>2633</v>
@@ -71522,7 +71522,7 @@
         <v>2</v>
       </c>
       <c r="D3720">
-        <v>84.5</v>
+        <v>84.25</v>
       </c>
       <c r="E3720" t="s">
         <v>2634</v>
@@ -71539,7 +71539,7 @@
         <v>1</v>
       </c>
       <c r="D3721">
-        <v>1521</v>
+        <v>1516.5</v>
       </c>
       <c r="E3721" t="s">
         <v>2633</v>
@@ -71590,7 +71590,7 @@
         <v>2</v>
       </c>
       <c r="D3724">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="E3724" t="s">
         <v>2634</v>
@@ -71607,7 +71607,7 @@
         <v>1</v>
       </c>
       <c r="D3725">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E3725" t="s">
         <v>2633</v>
@@ -71624,7 +71624,7 @@
         <v>2</v>
       </c>
       <c r="D3726">
-        <v>133.25</v>
+        <v>133</v>
       </c>
       <c r="E3726" t="s">
         <v>2634</v>
@@ -71641,7 +71641,7 @@
         <v>1</v>
       </c>
       <c r="D3727">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E3727" t="s">
         <v>2633</v>
@@ -71658,7 +71658,7 @@
         <v>2</v>
       </c>
       <c r="D3728">
-        <v>132.25</v>
+        <v>131.75</v>
       </c>
       <c r="E3728" t="s">
         <v>2634</v>
@@ -71675,7 +71675,7 @@
         <v>1</v>
       </c>
       <c r="D3729">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="E3729" t="s">
         <v>2633</v>
@@ -71726,7 +71726,7 @@
         <v>2</v>
       </c>
       <c r="D3732">
-        <v>74.75</v>
+        <v>74.5</v>
       </c>
       <c r="E3732" t="s">
         <v>2634</v>
@@ -71743,7 +71743,7 @@
         <v>1</v>
       </c>
       <c r="D3733">
-        <v>1345.5</v>
+        <v>1341</v>
       </c>
       <c r="E3733" t="s">
         <v>2633</v>
@@ -71760,7 +71760,7 @@
         <v>2</v>
       </c>
       <c r="D3734">
-        <v>82.25</v>
+        <v>82</v>
       </c>
       <c r="E3734" t="s">
         <v>2634</v>
@@ -71777,7 +71777,7 @@
         <v>1</v>
       </c>
       <c r="D3735">
-        <v>1480.5</v>
+        <v>1476</v>
       </c>
       <c r="E3735" t="s">
         <v>2633</v>
@@ -71794,7 +71794,7 @@
         <v>2</v>
       </c>
       <c r="D3736">
-        <v>84.25</v>
+        <v>84</v>
       </c>
       <c r="E3736" t="s">
         <v>2634</v>
@@ -71811,7 +71811,7 @@
         <v>1</v>
       </c>
       <c r="D3737">
-        <v>1516.5</v>
+        <v>1512</v>
       </c>
       <c r="E3737" t="s">
         <v>2633</v>
@@ -74684,7 +74684,7 @@
         <v>2</v>
       </c>
       <c r="D3906">
-        <v>126.75</v>
+        <v>125</v>
       </c>
       <c r="E3906" t="s">
         <v>2633</v>
@@ -75517,7 +75517,7 @@
         <v>2</v>
       </c>
       <c r="D3955">
-        <v>711.75</v>
+        <v>711</v>
       </c>
       <c r="E3955" t="s">
         <v>2633</v>
@@ -75823,7 +75823,7 @@
         <v>3</v>
       </c>
       <c r="D3973">
-        <v>54.19650692635182</v>
+        <v>54.19710350065025</v>
       </c>
       <c r="E3973" t="s">
         <v>2634</v>
@@ -75840,7 +75840,7 @@
         <v>1</v>
       </c>
       <c r="D3974">
-        <v>650.3580831162218</v>
+        <v>650.365242007803</v>
       </c>
       <c r="E3974" t="s">
         <v>2633</v>
@@ -76095,7 +76095,7 @@
         <v>3</v>
       </c>
       <c r="D3989">
-        <v>128.2449038962344</v>
+        <v>127.918580985557</v>
       </c>
       <c r="E3989" t="s">
         <v>2633</v>
@@ -76112,7 +76112,7 @@
         <v>3</v>
       </c>
       <c r="D3990">
-        <v>128.4246661627047</v>
+        <v>128.09788584168</v>
       </c>
       <c r="E3990" t="s">
         <v>2633</v>
@@ -76129,7 +76129,7 @@
         <v>3</v>
       </c>
       <c r="D3991">
-        <v>132.25</v>
+        <v>132</v>
       </c>
       <c r="E3991" t="s">
         <v>2633</v>
@@ -76146,7 +76146,7 @@
         <v>3</v>
       </c>
       <c r="D3992">
-        <v>133.5</v>
+        <v>133.25</v>
       </c>
       <c r="E3992" t="s">
         <v>2633</v>
@@ -76163,7 +76163,7 @@
         <v>3</v>
       </c>
       <c r="D3993">
-        <v>133.75</v>
+        <v>133.25</v>
       </c>
       <c r="E3993" t="s">
         <v>2633</v>
@@ -76180,7 +76180,7 @@
         <v>3</v>
       </c>
       <c r="D3994">
-        <v>133.75</v>
+        <v>133.5</v>
       </c>
       <c r="E3994" t="s">
         <v>2633</v>
